--- a/Daily/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2501 +411,2701 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="B2">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C2">
-        <v>0.07487453243809841</v>
+        <v>-0.02699002714861459</v>
       </c>
       <c r="D2">
-        <v>-8.512436274938405</v>
+        <v>-8.629744150613691</v>
       </c>
       <c r="E2">
-        <v>8.662185339814602</v>
+        <v>8.57576409631646</v>
       </c>
       <c r="F2">
-        <v>1.515180502060254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="B3">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="C3">
-        <v>6.142521579799443E-05</v>
+        <v>0.01742015788586847</v>
       </c>
       <c r="D3">
-        <v>-8.58576715762983</v>
+        <v>-8.583662812324448</v>
       </c>
       <c r="E3">
-        <v>8.585890008061424</v>
+        <v>8.618503128096187</v>
       </c>
       <c r="F3">
-        <v>-1.134227660393439</v>
+        <v>1.509462622248492</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="B4">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="C4">
-        <v>-0.03631475089364777</v>
+        <v>0.03713341266649972</v>
       </c>
       <c r="D4">
-        <v>-8.620593790108401</v>
+        <v>-8.562472346493557</v>
       </c>
       <c r="E4">
-        <v>8.547964288321104</v>
+        <v>8.636739171826555</v>
       </c>
       <c r="F4">
-        <v>-0.3809528416668151</v>
+        <v>-0.7518832414027621</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B5">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="C5">
-        <v>0.0113013168792957</v>
+        <v>-0.04813766115400103</v>
       </c>
       <c r="D5">
-        <v>-8.571328072279128</v>
+        <v>-8.646128073551834</v>
       </c>
       <c r="E5">
-        <v>8.593930706037719</v>
+        <v>8.549852751243831</v>
       </c>
       <c r="F5">
-        <v>1.890415463915307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="B6">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="C6">
-        <v>0.0533192860340761</v>
+        <v>0.03117305448663466</v>
       </c>
       <c r="D6">
-        <v>-8.527956685086123</v>
+        <v>-8.565149180254208</v>
       </c>
       <c r="E6">
-        <v>8.634595257154276</v>
+        <v>8.627495289227477</v>
       </c>
       <c r="F6">
-        <v>-0.3752349618550532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="B7">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="C7">
-        <v>-0.04649368858312156</v>
+        <v>-0.02018685329096214</v>
       </c>
       <c r="D7">
-        <v>-8.626127495578782</v>
+        <v>-8.614841764424893</v>
       </c>
       <c r="E7">
-        <v>8.53314011841254</v>
+        <v>8.574468057842969</v>
       </c>
       <c r="F7">
-        <v>-1.897590145900541</v>
+        <v>0.3766482795477089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="B8">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="C8">
-        <v>-0.06308957744575432</v>
+        <v>0.02514518436496316</v>
       </c>
       <c r="D8">
-        <v>-8.643575074759378</v>
+        <v>-8.567856939572389</v>
       </c>
       <c r="E8">
-        <v>8.517395919867868</v>
+        <v>8.618147308302314</v>
       </c>
       <c r="F8">
-        <v>1.142869582362227</v>
+        <v>-0.3766482795477089</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="B9">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="C9">
-        <v>0.04260203354235841</v>
+        <v>-0.02835362627514246</v>
       </c>
       <c r="D9">
-        <v>-8.536351951220729</v>
+        <v>-8.619704270222169</v>
       </c>
       <c r="E9">
-        <v>8.621556018305446</v>
+        <v>8.562997017671883</v>
       </c>
       <c r="F9">
-        <v>0.7547205635383136</v>
+        <v>1.8692133012153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="B10">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="C10">
-        <v>0.02270731839923479</v>
+        <v>0.07833408169553024</v>
       </c>
       <c r="D10">
-        <v>-8.554633278991282</v>
+        <v>-8.511664096727507</v>
       </c>
       <c r="E10">
-        <v>8.600047915789752</v>
+        <v>8.668332260118568</v>
       </c>
       <c r="F10">
-        <v>-0.7547205635383136</v>
+        <v>-2.62679268206103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="B11">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="C11">
-        <v>-0.02699999432125525</v>
+        <v>-0.1346411195165129</v>
       </c>
       <c r="D11">
-        <v>-8.602736991618306</v>
+        <v>-8.723609535543977</v>
       </c>
       <c r="E11">
-        <v>8.548737002975797</v>
+        <v>8.454327296510952</v>
       </c>
       <c r="F11">
-        <v>-0.7604599385219402</v>
+        <v>-0.3809528416668151</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="B12">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="C12">
-        <v>-0.02388777163551051</v>
+        <v>0.07487453243809841</v>
       </c>
       <c r="D12">
-        <v>-8.598016829867678</v>
+        <v>-8.512436274938405</v>
       </c>
       <c r="E12">
-        <v>8.550241286596655</v>
+        <v>8.662185339814602</v>
       </c>
       <c r="F12">
-        <v>0.3809528416668151</v>
+        <v>1.515180502060254</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="B13">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="C13">
-        <v>0.01448307871293404</v>
+        <v>6.142521579799443E-05</v>
       </c>
       <c r="D13">
-        <v>-8.558006911369416</v>
+        <v>-8.58576715762983</v>
       </c>
       <c r="E13">
-        <v>8.586973068795283</v>
+        <v>8.585890008061424</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-1.134227660393439</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="B14">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="C14">
-        <v>-0.0009765246060626385</v>
+        <v>-0.03631475089364777</v>
       </c>
       <c r="D14">
-        <v>-8.571814654150637</v>
+        <v>-8.620593790108401</v>
       </c>
       <c r="E14">
-        <v>8.569861604938511</v>
+        <v>8.547964288321104</v>
       </c>
       <c r="F14">
-        <v>-0.763362485507102</v>
+        <v>-0.3809528416668151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="B15">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="C15">
-        <v>-0.0257302968033205</v>
+        <v>0.0113013168792957</v>
       </c>
       <c r="D15">
-        <v>-8.594967314413502</v>
+        <v>-8.571328072279128</v>
       </c>
       <c r="E15">
-        <v>8.54350672080686</v>
+        <v>8.593930706037719</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.890415463915307</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="B16">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C16">
-        <v>0.00174408567409461</v>
+        <v>0.0533192860340761</v>
       </c>
       <c r="D16">
-        <v>-8.56584299578503</v>
+        <v>-8.527956685086123</v>
       </c>
       <c r="E16">
-        <v>8.569331167133218</v>
+        <v>8.634595257154276</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-0.3752349618550532</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="B17">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="C17">
-        <v>-0.0001182165372974376</v>
+        <v>-0.04649368858312156</v>
       </c>
       <c r="D17">
-        <v>-8.566056259686457</v>
+        <v>-8.626127495578782</v>
       </c>
       <c r="E17">
-        <v>8.565819826611863</v>
+        <v>8.53314011841254</v>
       </c>
       <c r="F17">
-        <v>-0.3838776307166114</v>
+        <v>-1.897590145900541</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="B18">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="C18">
-        <v>-0.01296454285259037</v>
+        <v>-0.06308957744575432</v>
       </c>
       <c r="D18">
-        <v>-8.577267200555324</v>
+        <v>-8.643575074759378</v>
       </c>
       <c r="E18">
-        <v>8.551338114850145</v>
+        <v>8.517395919867868</v>
       </c>
       <c r="F18">
-        <v>1.147240116223713</v>
+        <v>1.142869582362227</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="B19">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="C19">
-        <v>0.03963774233215984</v>
+        <v>0.04260203354235841</v>
       </c>
       <c r="D19">
-        <v>-8.523133898096155</v>
+        <v>-8.536351951220729</v>
       </c>
       <c r="E19">
-        <v>8.602409382760474</v>
+        <v>8.621556018305446</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.7547205635383136</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="B20">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="C20">
-        <v>-0.002686559913934323</v>
+        <v>0.02270731839923479</v>
       </c>
       <c r="D20">
-        <v>-8.563812140937857</v>
+        <v>-8.554633278991282</v>
       </c>
       <c r="E20">
-        <v>8.558439021109988</v>
+        <v>8.600047915789752</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-0.7547205635383136</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="B21">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="C21">
-        <v>0.0001820798618107268</v>
+        <v>-0.02699999432125525</v>
       </c>
       <c r="D21">
-        <v>-8.559298241804395</v>
+        <v>-8.602736991618306</v>
       </c>
       <c r="E21">
-        <v>8.559662401528016</v>
+        <v>8.548737002975797</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>-0.7604599385219402</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="B22">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="C22">
-        <v>-1.234079027273399E-05</v>
+        <v>-0.02388777163551051</v>
       </c>
       <c r="D22">
-        <v>-8.557848347909621</v>
+        <v>-8.598016829867678</v>
       </c>
       <c r="E22">
-        <v>8.557823666329076</v>
+        <v>8.550241286596655</v>
       </c>
       <c r="F22">
-        <v>1.134227660393439</v>
+        <v>0.3809528416668151</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="B23">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="C23">
-        <v>0.03831905914460405</v>
+        <v>0.01448307871293404</v>
       </c>
       <c r="D23">
-        <v>-8.517984490013966</v>
+        <v>-8.558006911369416</v>
       </c>
       <c r="E23">
-        <v>8.594622608303172</v>
+        <v>8.586973068795283</v>
       </c>
       <c r="F23">
-        <v>-0.7547205635383136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="B24">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="C24">
-        <v>-0.02807996713750395</v>
+        <v>-0.0009765246060626385</v>
       </c>
       <c r="D24">
-        <v>-8.582795253401834</v>
+        <v>-8.571814654150637</v>
       </c>
       <c r="E24">
-        <v>8.526635319126825</v>
+        <v>8.569861604938511</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>-0.763362485507102</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="B25">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="C25">
-        <v>0.001902509062665934</v>
+        <v>-0.0257302968033205</v>
       </c>
       <c r="D25">
-        <v>-8.551171374833636</v>
+        <v>-8.594967314413502</v>
       </c>
       <c r="E25">
-        <v>8.554976392958967</v>
+        <v>8.54350672080686</v>
       </c>
       <c r="F25">
-        <v>1.503787736454054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="B26">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="C26">
-        <v>0.05065600362924565</v>
+        <v>0.00174408567409461</v>
       </c>
       <c r="D26">
-        <v>-8.500970237338336</v>
+        <v>-8.56584299578503</v>
       </c>
       <c r="E26">
-        <v>8.602282244596829</v>
+        <v>8.569331167133218</v>
       </c>
       <c r="F26">
-        <v>5.445991713238119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="B27">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="C27">
-        <v>0.1813078015180749</v>
+        <v>-0.0001182165372974376</v>
       </c>
       <c r="D27">
-        <v>-8.371186184699958</v>
+        <v>-8.566056259686457</v>
       </c>
       <c r="E27">
-        <v>8.733801787736109</v>
+        <v>8.565819826611863</v>
       </c>
       <c r="F27">
-        <v>3.130690462504404</v>
+        <v>-0.3838776307166114</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B28">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="C28">
-        <v>0.09554598113045612</v>
+        <v>-0.01296454285259037</v>
       </c>
       <c r="D28">
-        <v>-8.456062857228765</v>
+        <v>-8.577267200555324</v>
       </c>
       <c r="E28">
-        <v>8.647154819489678</v>
+        <v>8.551338114850145</v>
       </c>
       <c r="F28">
-        <v>2.368977112240511</v>
+        <v>1.147240116223713</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="B29">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="C29">
-        <v>0.0775538068723407</v>
+        <v>0.03963774233215984</v>
       </c>
       <c r="D29">
-        <v>-8.470712518771791</v>
+        <v>-8.523133898096155</v>
       </c>
       <c r="E29">
-        <v>8.625820132516473</v>
+        <v>8.602409382760474</v>
       </c>
       <c r="F29">
-        <v>23.70926316917394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C30">
-        <v>0.8462082662456778</v>
+        <v>-0.002686559913934323</v>
       </c>
       <c r="D30">
-        <v>-7.750231963201787</v>
+        <v>-8.563812140937857</v>
       </c>
       <c r="E30">
-        <v>9.442648495693142</v>
+        <v>8.558439021109988</v>
       </c>
       <c r="F30">
-        <v>6.635086202411244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="B31">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="C31">
-        <v>0.5330005517104635</v>
+        <v>0.0001820798618107268</v>
       </c>
       <c r="D31">
-        <v>-8.064628381571939</v>
+        <v>-8.559298241804395</v>
       </c>
       <c r="E31">
-        <v>9.130629484992866</v>
+        <v>8.559662401528016</v>
       </c>
       <c r="F31">
-        <v>18.02618238309446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="B32">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="C32">
-        <v>0.9762678747298903</v>
+        <v>-1.234079027273399E-05</v>
       </c>
       <c r="D32">
-        <v>-7.645652330720257</v>
+        <v>-8.557848347909621</v>
       </c>
       <c r="E32">
-        <v>9.598188080180037</v>
+        <v>8.557823666329076</v>
       </c>
       <c r="F32">
-        <v>-9.510401549063729</v>
+        <v>1.134227660393439</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="B33">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="C33">
-        <v>-0.02738379865578278</v>
+        <v>0.03831905914460405</v>
       </c>
       <c r="D33">
-        <v>-8.656920039351451</v>
+        <v>-8.517984490013966</v>
       </c>
       <c r="E33">
-        <v>8.602152442039888</v>
+        <v>8.594622608303172</v>
       </c>
       <c r="F33">
-        <v>-10.25928701624084</v>
+        <v>-0.7547205635383136</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="B34">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C34">
-        <v>-0.4176705240334879</v>
+        <v>-0.02807996713750395</v>
       </c>
       <c r="D34">
-        <v>-9.054391154440982</v>
+        <v>-8.582795253401834</v>
       </c>
       <c r="E34">
-        <v>8.219050106374006</v>
+        <v>8.526635319126825</v>
       </c>
       <c r="F34">
-        <v>-1.774444529907182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="B35">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="C35">
-        <v>-0.1911009846256848</v>
+        <v>0.001902509062665934</v>
       </c>
       <c r="D35">
-        <v>-8.826326438183564</v>
+        <v>-8.551171374833636</v>
       </c>
       <c r="E35">
-        <v>8.444124468932195</v>
+        <v>8.554976392958967</v>
       </c>
       <c r="F35">
-        <v>-2.853630726493428</v>
+        <v>1.503787736454054</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B36">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="C36">
-        <v>-0.1664322878886916</v>
+        <v>0.05065600362924565</v>
       </c>
       <c r="D36">
-        <v>-8.800610219654789</v>
+        <v>-8.500970237338336</v>
       </c>
       <c r="E36">
-        <v>8.467745643877407</v>
+        <v>8.602282244596829</v>
       </c>
       <c r="F36">
-        <v>-6.243547094079283</v>
+        <v>5.445991713238119</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="B37">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="C37">
-        <v>-0.2920024019968401</v>
+        <v>0.1813078015180749</v>
       </c>
       <c r="D37">
-        <v>-8.927667942559758</v>
+        <v>-8.371186184699958</v>
       </c>
       <c r="E37">
-        <v>8.343663138566079</v>
+        <v>8.733801787736109</v>
       </c>
       <c r="F37">
-        <v>-1.694955831377332</v>
+        <v>3.130690462504404</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="B38">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="C38">
-        <v>-0.1561075042214536</v>
+        <v>0.09554598113045612</v>
       </c>
       <c r="D38">
-        <v>-8.790291319804579</v>
+        <v>-8.456062857228765</v>
       </c>
       <c r="E38">
-        <v>8.47807631136167</v>
+        <v>8.647154819489678</v>
       </c>
       <c r="F38">
-        <v>1.414450738616502</v>
+        <v>2.368977112240511</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="B39">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="C39">
-        <v>0.007016051554320224</v>
+        <v>0.0775538068723407</v>
       </c>
       <c r="D39">
-        <v>-8.625728918592865</v>
+        <v>-8.470712518771791</v>
       </c>
       <c r="E39">
-        <v>8.639761021701505</v>
+        <v>8.625820132516473</v>
       </c>
       <c r="F39">
-        <v>7.571182173569646</v>
+        <v>23.70926316917394</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="B40">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="C40">
-        <v>0.2957959982203624</v>
+        <v>0.8462082662456778</v>
       </c>
       <c r="D40">
-        <v>-8.340155588665862</v>
+        <v>-7.750231963201787</v>
       </c>
       <c r="E40">
-        <v>8.931747585106585</v>
+        <v>9.442648495693142</v>
       </c>
       <c r="F40">
-        <v>-8.985632912186148</v>
+        <v>6.635086202411244</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="B41">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="C41">
-        <v>-0.2483312898488257</v>
+        <v>0.5330005517104635</v>
       </c>
       <c r="D41">
-        <v>-8.889933745501468</v>
+        <v>-8.064628381571939</v>
       </c>
       <c r="E41">
-        <v>8.393271165803815</v>
+        <v>9.130629484992866</v>
       </c>
       <c r="F41">
-        <v>0.85106896679088</v>
+        <v>18.02618238309446</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="B42">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="C42">
-        <v>-0.04413441510470156</v>
+        <v>0.9762678747298903</v>
       </c>
       <c r="D42">
-        <v>-8.684191936292136</v>
+        <v>-7.645652330720257</v>
       </c>
       <c r="E42">
-        <v>8.595923106082731</v>
+        <v>9.598188080180037</v>
       </c>
       <c r="F42">
-        <v>-3.448617607116944</v>
+        <v>-9.510401549063729</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="B43">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="C43">
-        <v>-0.1419325172806489</v>
+        <v>-0.02738379865578278</v>
       </c>
       <c r="D43">
-        <v>-8.781325744699247</v>
+        <v>-8.656920039351451</v>
       </c>
       <c r="E43">
-        <v>8.497460710137949</v>
+        <v>8.602152442039888</v>
       </c>
       <c r="F43">
-        <v>-3.571808260207909</v>
+        <v>-10.25928701624084</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="B44">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="C44">
-        <v>-0.1778832202799023</v>
+        <v>-0.4176705240334879</v>
       </c>
       <c r="D44">
-        <v>-8.816626999135483</v>
+        <v>-9.054391154440982</v>
       </c>
       <c r="E44">
-        <v>8.460860558575678</v>
+        <v>8.219050106374006</v>
       </c>
       <c r="F44">
-        <v>-4.652001563489261</v>
+        <v>-1.774444529907182</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="B45">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="C45">
-        <v>-0.2317116271713155</v>
+        <v>-0.1911009846256848</v>
       </c>
       <c r="D45">
-        <v>-8.870504929797171</v>
+        <v>-8.826326438183564</v>
       </c>
       <c r="E45">
-        <v>8.407081675454538</v>
+        <v>8.444124468932195</v>
       </c>
       <c r="F45">
-        <v>4.652001563489261</v>
+        <v>-2.853630726493428</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="B46">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="C46">
-        <v>0.1025409190708781</v>
+        <v>-0.1664322878886916</v>
       </c>
       <c r="D46">
-        <v>-8.536624996202244</v>
+        <v>-8.800610219654789</v>
       </c>
       <c r="E46">
-        <v>8.741706834343999</v>
+        <v>8.467745643877407</v>
       </c>
       <c r="F46">
-        <v>-5.288946392037275</v>
+        <v>-6.243547094079283</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="B47">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="C47">
-        <v>-0.1631790719125095</v>
+        <v>-0.2920024019968401</v>
       </c>
       <c r="D47">
-        <v>-8.803159389900383</v>
+        <v>-8.927667942559758</v>
       </c>
       <c r="E47">
-        <v>8.476801246075365</v>
+        <v>8.343663138566079</v>
       </c>
       <c r="F47">
-        <v>5.288946392037275</v>
+        <v>-1.694955831377332</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="B48">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C48">
-        <v>0.1402434307886111</v>
+        <v>-0.1561075042214536</v>
       </c>
       <c r="D48">
-        <v>-8.500606618368513</v>
+        <v>-8.790291319804579</v>
       </c>
       <c r="E48">
-        <v>8.781093479945737</v>
+        <v>8.47807631136167</v>
       </c>
       <c r="F48">
-        <v>-1.834913866819665</v>
+        <v>1.414450738616502</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="B49">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="C49">
-        <v>-0.02111661280165833</v>
+        <v>0.007016051554320224</v>
       </c>
       <c r="D49">
-        <v>-8.660653595485464</v>
+        <v>-8.625728918592865</v>
       </c>
       <c r="E49">
-        <v>8.618420369882148</v>
+        <v>8.639761021701505</v>
       </c>
       <c r="F49">
-        <v>9.137427368308693</v>
+        <v>7.571182173569646</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="B50">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="C50">
-        <v>0.3206302870527811</v>
+        <v>0.2957959982203624</v>
       </c>
       <c r="D50">
-        <v>-8.324357491426374</v>
+        <v>-8.340155588665862</v>
       </c>
       <c r="E50">
-        <v>8.965618065531936</v>
+        <v>8.931747585106585</v>
       </c>
       <c r="F50">
-        <v>2.777956410707549</v>
+        <v>-8.985632912186148</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="B51">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="C51">
-        <v>0.2109041237780043</v>
+        <v>-0.2483312898488257</v>
       </c>
       <c r="D51">
-        <v>-8.432945653583026</v>
+        <v>-8.889933745501468</v>
       </c>
       <c r="E51">
-        <v>8.854753901139034</v>
+        <v>8.393271165803815</v>
       </c>
       <c r="F51">
-        <v>2.702867238791917</v>
+        <v>0.85106896679088</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="B52">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="C52">
-        <v>0.1683555612266274</v>
+        <v>-0.04413441510470156</v>
       </c>
       <c r="D52">
-        <v>-8.474374990389558</v>
+        <v>-8.684191936292136</v>
       </c>
       <c r="E52">
-        <v>8.811086112842814</v>
+        <v>8.595923106082731</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-3.448617607116944</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="B53">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="C53">
-        <v>0.05559571070697503</v>
+        <v>-0.1419325172806489</v>
       </c>
       <c r="D53">
-        <v>-8.585496462396847</v>
+        <v>-8.781325744699247</v>
       </c>
       <c r="E53">
-        <v>8.696687883810796</v>
+        <v>8.497460710137949</v>
       </c>
       <c r="F53">
-        <v>4.178153401495521</v>
+        <v>-3.571808260207909</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="B54">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="C54">
-        <v>0.172431204682818</v>
+        <v>-0.1778832202799023</v>
       </c>
       <c r="D54">
-        <v>-8.468454716888278</v>
+        <v>-8.816626999135483</v>
       </c>
       <c r="E54">
-        <v>8.813317126253914</v>
+        <v>8.460860558575678</v>
       </c>
       <c r="F54">
-        <v>3.764559961636671</v>
+        <v>-4.652001563489261</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="B55">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="C55">
-        <v>0.1977456419681316</v>
+        <v>-0.2317116271713155</v>
       </c>
       <c r="D55">
-        <v>-8.44258906000392</v>
+        <v>-8.870504929797171</v>
       </c>
       <c r="E55">
-        <v>8.838080343940183</v>
+        <v>8.407081675454538</v>
       </c>
       <c r="F55">
-        <v>1.224005489450164</v>
+        <v>4.652001563489261</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="B56">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="C56">
-        <v>0.1122989635920391</v>
+        <v>0.1025409190708781</v>
       </c>
       <c r="D56">
-        <v>-8.526486101821936</v>
+        <v>-8.536624996202244</v>
       </c>
       <c r="E56">
-        <v>8.751084029006014</v>
+        <v>8.741706834343999</v>
       </c>
       <c r="F56">
-        <v>6.133998059935575</v>
+        <v>-5.288946392037275</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="B57">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="C57">
-        <v>0.2677392288547793</v>
+        <v>-0.1631790719125095</v>
       </c>
       <c r="D57">
-        <v>-8.372463789200765</v>
+        <v>-8.803159389900383</v>
       </c>
       <c r="E57">
-        <v>8.907942246910324</v>
+        <v>8.476801246075365</v>
       </c>
       <c r="F57">
-        <v>4.475019579861517</v>
+        <v>5.288946392037275</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="B58">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="C58">
-        <v>0.2626801734618338</v>
+        <v>0.1402434307886111</v>
       </c>
       <c r="D58">
-        <v>-8.377375750671931</v>
+        <v>-8.500606618368513</v>
       </c>
       <c r="E58">
-        <v>8.902736097595596</v>
+        <v>8.781093479945737</v>
       </c>
       <c r="F58">
-        <v>2.804930380989923</v>
+        <v>-1.834913866819665</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="B59">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="C59">
-        <v>0.1989633811920328</v>
+        <v>-0.02111661280165833</v>
       </c>
       <c r="D59">
-        <v>-8.439999910185477</v>
+        <v>-8.660653595485464</v>
       </c>
       <c r="E59">
-        <v>8.837926672569544</v>
+        <v>8.618420369882148</v>
       </c>
       <c r="F59">
-        <v>15.71855835224119</v>
+        <v>9.137427368308693</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="B60">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="C60">
-        <v>0.6905414215203463</v>
+        <v>0.3206302870527811</v>
       </c>
       <c r="D60">
-        <v>-7.96702733600135</v>
+        <v>-8.324357491426374</v>
       </c>
       <c r="E60">
-        <v>9.348110179042042</v>
+        <v>8.965618065531936</v>
       </c>
       <c r="F60">
-        <v>16.70540846631665</v>
+        <v>2.777956410707549</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="B61">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="C61">
-        <v>1.013181973430176</v>
+        <v>0.2109041237780043</v>
       </c>
       <c r="D61">
-        <v>-7.664154361520068</v>
+        <v>-8.432945653583026</v>
       </c>
       <c r="E61">
-        <v>9.690518308380419</v>
+        <v>8.854753901139034</v>
       </c>
       <c r="F61">
-        <v>-16.70540846631665</v>
+        <v>2.702867238791917</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="B62">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="C62">
-        <v>-0.3356044148129653</v>
+        <v>0.1683555612266274</v>
       </c>
       <c r="D62">
-        <v>-9.037312070262676</v>
+        <v>-8.474374990389558</v>
       </c>
       <c r="E62">
-        <v>8.366103240636743</v>
+        <v>8.811086112842814</v>
       </c>
       <c r="F62">
-        <v>-1.2808958292581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="B63">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="C63">
-        <v>-0.1636793876224237</v>
+        <v>0.05559571070697503</v>
       </c>
       <c r="D63">
-        <v>-8.863814727799022</v>
+        <v>-8.585496462396847</v>
       </c>
       <c r="E63">
-        <v>8.536455952554176</v>
+        <v>8.696687883810796</v>
       </c>
       <c r="F63">
-        <v>5.202967144586257</v>
+        <v>4.178153401495521</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="B64">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="C64">
-        <v>0.1390694684650444</v>
+        <v>0.172431204682818</v>
       </c>
       <c r="D64">
-        <v>-8.561824642933646</v>
+        <v>-8.468454716888278</v>
       </c>
       <c r="E64">
-        <v>8.839963579863733</v>
+        <v>8.813317126253914</v>
       </c>
       <c r="F64">
-        <v>-5.571971253331665</v>
+        <v>3.764559961636671</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="B65">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="C65">
-        <v>-0.1579299453450826</v>
+        <v>0.1977456419681316</v>
       </c>
       <c r="D65">
-        <v>-8.85990027952759</v>
+        <v>-8.44258906000392</v>
       </c>
       <c r="E65">
-        <v>8.544040388837423</v>
+        <v>8.838080343940183</v>
       </c>
       <c r="F65">
-        <v>0.3690041087454077</v>
+        <v>1.224005489450164</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="B66">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="C66">
-        <v>-0.04083746233073099</v>
+        <v>0.1122989635920391</v>
       </c>
       <c r="D66">
-        <v>-8.741187089003541</v>
+        <v>-8.526486101821936</v>
       </c>
       <c r="E66">
-        <v>8.659512164342077</v>
+        <v>8.751084029006014</v>
       </c>
       <c r="F66">
-        <v>-2.990877139257275</v>
+        <v>6.133998059935575</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="B67">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="C67">
-        <v>-0.1241669713994913</v>
+        <v>0.2677392288547793</v>
       </c>
       <c r="D67">
-        <v>-8.823599377168129</v>
+        <v>-8.372463789200765</v>
       </c>
       <c r="E67">
-        <v>8.575265434369147</v>
+        <v>8.907942246910324</v>
       </c>
       <c r="F67">
-        <v>-4.860042884963356</v>
+        <v>4.475019579861517</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="B68">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="C68">
-        <v>-0.223278789107799</v>
+        <v>0.2626801734618338</v>
       </c>
       <c r="D68">
-        <v>-8.922938255261258</v>
+        <v>-8.377375750671931</v>
       </c>
       <c r="E68">
-        <v>8.476380677045661</v>
+        <v>8.902736097595596</v>
       </c>
       <c r="F68">
-        <v>-2.215599189720852</v>
+        <v>2.804930380989923</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="B69">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="C69">
-        <v>-0.1605207315356817</v>
+        <v>0.1989633811920328</v>
       </c>
       <c r="D69">
-        <v>-8.858869172330287</v>
+        <v>-8.439999910185477</v>
       </c>
       <c r="E69">
-        <v>8.537827709258924</v>
+        <v>8.837926672569544</v>
       </c>
       <c r="F69">
-        <v>-1.023550389402672</v>
+        <v>15.71855835224119</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="B70">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="C70">
-        <v>-0.09419824591489545</v>
+        <v>0.6905414215203463</v>
       </c>
       <c r="D70">
-        <v>-8.790968035614018</v>
+        <v>-7.96702733600135</v>
       </c>
       <c r="E70">
-        <v>8.602571543784226</v>
+        <v>9.348110179042042</v>
       </c>
       <c r="F70">
-        <v>2.839947452169778</v>
+        <v>16.70540846631665</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="B71">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="C71">
-        <v>0.07331993757895039</v>
+        <v>1.013181973430176</v>
       </c>
       <c r="D71">
-        <v>-8.622526690212696</v>
+        <v>-7.664154361520068</v>
       </c>
       <c r="E71">
-        <v>8.769166565370599</v>
+        <v>9.690518308380419</v>
       </c>
       <c r="F71">
-        <v>-4.709160753384989</v>
+        <v>-16.70540846631665</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="B72">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="C72">
-        <v>-0.14863731915288</v>
+        <v>-0.3356044148129653</v>
       </c>
       <c r="D72">
-        <v>-8.844749252729351</v>
+        <v>-9.037312070262676</v>
       </c>
       <c r="E72">
-        <v>8.547474614423592</v>
+        <v>8.366103240636743</v>
       </c>
       <c r="F72">
-        <v>-3.629000140520056</v>
+        <v>-1.2808958292581</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="B73">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="C73">
-        <v>-0.1872409592658515</v>
+        <v>-0.1636793876224237</v>
       </c>
       <c r="D73">
-        <v>-8.882722213590165</v>
+        <v>-8.863814727799022</v>
       </c>
       <c r="E73">
-        <v>8.508240295058462</v>
+        <v>8.536455952554176</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>5.202967144586257</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="B74">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="C74">
-        <v>-0.06542168148693785</v>
+        <v>0.1390694684650444</v>
       </c>
       <c r="D74">
-        <v>-8.759268129067664</v>
+        <v>-8.561824642933646</v>
       </c>
       <c r="E74">
-        <v>8.628424766093787</v>
+        <v>8.839963579863733</v>
       </c>
       <c r="F74">
-        <v>0.2171553513507618</v>
+        <v>-5.571971253331665</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="B75">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="C75">
-        <v>-0.01475147022195632</v>
+        <v>-0.1579299453450826</v>
       </c>
       <c r="D75">
-        <v>-8.706967740218499</v>
+        <v>-8.85990027952759</v>
       </c>
       <c r="E75">
-        <v>8.677464799774587</v>
+        <v>8.544040388837423</v>
       </c>
       <c r="F75">
-        <v>-0.2171553513507618</v>
+        <v>0.3690041087454077</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="B76">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="C76">
-        <v>-0.01323058837774153</v>
+        <v>-0.04083746233073099</v>
       </c>
       <c r="D76">
-        <v>-8.703814403237731</v>
+        <v>-8.741187089003541</v>
       </c>
       <c r="E76">
-        <v>8.677353226482248</v>
+        <v>8.659512164342077</v>
       </c>
       <c r="F76">
-        <v>0.8658062743114314</v>
+        <v>-2.990877139257275</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="B77">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="C77">
-        <v>0.02755856321647548</v>
+        <v>-0.1241669713994913</v>
       </c>
       <c r="D77">
-        <v>-8.661454543232763</v>
+        <v>-8.823599377168129</v>
       </c>
       <c r="E77">
-        <v>8.716571669665713</v>
+        <v>8.575265434369147</v>
       </c>
       <c r="F77">
-        <v>-1.958713327530504</v>
+        <v>-4.860042884963356</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="B78">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="C78">
-        <v>-0.06309619838943192</v>
+        <v>-0.223278789107799</v>
       </c>
       <c r="D78">
-        <v>-8.750803353825617</v>
+        <v>-8.922938255261258</v>
       </c>
       <c r="E78">
-        <v>8.624610957046752</v>
+        <v>8.476380677045661</v>
       </c>
       <c r="F78">
-        <v>2.173998663640564</v>
+        <v>-2.215599189720852</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="B79">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="C79">
-        <v>0.05850779895896319</v>
+        <v>-0.1605207315356817</v>
       </c>
       <c r="D79">
-        <v>-8.627982243652539</v>
+        <v>-8.858869172330287</v>
       </c>
       <c r="E79">
-        <v>8.744997841570466</v>
+        <v>8.537827709258924</v>
       </c>
       <c r="F79">
-        <v>9.04106109631666</v>
+        <v>-1.023550389402672</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="B80">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="C80">
-        <v>0.3579438019306944</v>
+        <v>-0.09419824591489545</v>
       </c>
       <c r="D80">
-        <v>-8.333616569705935</v>
+        <v>-8.790968035614018</v>
       </c>
       <c r="E80">
-        <v>9.049504173567325</v>
+        <v>8.602571543784226</v>
       </c>
       <c r="F80">
-        <v>-9.04106109631666</v>
+        <v>2.839947452169778</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="B81">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="C81">
-        <v>-0.2027651330863773</v>
+        <v>0.07331993757895039</v>
       </c>
       <c r="D81">
-        <v>-8.900014706644559</v>
+        <v>-8.622526690212696</v>
       </c>
       <c r="E81">
-        <v>8.494484440471805</v>
+        <v>8.769166565370599</v>
       </c>
       <c r="F81">
-        <v>5.236798551731603</v>
+        <v>-4.709160753384989</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="B82">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="C82">
-        <v>0.1130382746316829</v>
+        <v>-0.14863731915288</v>
       </c>
       <c r="D82">
-        <v>-8.585029288925384</v>
+        <v>-8.844749252729351</v>
       </c>
       <c r="E82">
-        <v>8.811105838188748</v>
+        <v>8.547474614423592</v>
       </c>
       <c r="F82">
-        <v>-5.236798551731603</v>
+        <v>-3.629000140520056</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="B83">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="C83">
-        <v>-0.1410104917110011</v>
+        <v>-0.1872409592658515</v>
       </c>
       <c r="D83">
-        <v>-8.839817653790119</v>
+        <v>-8.882722213590165</v>
       </c>
       <c r="E83">
-        <v>8.557796670368118</v>
+        <v>8.508240295058462</v>
       </c>
       <c r="F83">
-        <v>-1.081091610421492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="B84">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="C84">
-        <v>-0.08957199231020807</v>
+        <v>-0.06542168148693785</v>
       </c>
       <c r="D84">
-        <v>-8.786820102865658</v>
+        <v>-8.759268129067664</v>
       </c>
       <c r="E84">
-        <v>8.607676118245241</v>
+        <v>8.628424766093787</v>
       </c>
       <c r="F84">
-        <v>0.6500564603093117</v>
+        <v>0.2171553513507618</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="B85">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="C85">
-        <v>-0.0101957824178347</v>
+        <v>-0.01475147022195632</v>
       </c>
       <c r="D85">
-        <v>-8.705857899255145</v>
+        <v>-8.706967740218499</v>
       </c>
       <c r="E85">
-        <v>8.685466334419475</v>
+        <v>8.677464799774587</v>
       </c>
       <c r="F85">
-        <v>-1.304366319202899</v>
+        <v>-0.2171553513507618</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="B86">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="C86">
-        <v>-0.04919609662419538</v>
+        <v>-0.01323058837774153</v>
       </c>
       <c r="D86">
-        <v>-8.743366626653097</v>
+        <v>-8.703814403237731</v>
       </c>
       <c r="E86">
-        <v>8.644974433404707</v>
+        <v>8.677353226482248</v>
       </c>
       <c r="F86">
-        <v>-1.543580812983958</v>
+        <v>0.8658062743114314</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="B87">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="C87">
-        <v>-0.07190074661761581</v>
+        <v>0.02755856321647548</v>
       </c>
       <c r="D87">
-        <v>-8.764626756386939</v>
+        <v>-8.661454543232763</v>
       </c>
       <c r="E87">
-        <v>8.620825263151708</v>
+        <v>8.716571669665713</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>-1.958713327530504</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="B88">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="C88">
-        <v>-0.02646138268981286</v>
+        <v>-0.06309619838943192</v>
       </c>
       <c r="D88">
-        <v>-8.717559206338464</v>
+        <v>-8.750803353825617</v>
       </c>
       <c r="E88">
-        <v>8.664636440958837</v>
+        <v>8.624610957046752</v>
       </c>
       <c r="F88">
-        <v>0.2219756738313095</v>
+        <v>2.173998663640564</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="B89">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="C89">
-        <v>-0.001999027742103629</v>
+        <v>0.05850779895896319</v>
       </c>
       <c r="D89">
-        <v>-8.69147425233218</v>
+        <v>-8.627982243652539</v>
       </c>
       <c r="E89">
-        <v>8.687476196847973</v>
+        <v>8.744997841570466</v>
       </c>
       <c r="F89">
-        <v>2.409755157906002</v>
+        <v>9.04106109631666</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="B90">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="C90">
-        <v>0.0832586908643701</v>
+        <v>0.3579438019306944</v>
       </c>
       <c r="D90">
-        <v>-8.605071119461631</v>
+        <v>-8.333616569705935</v>
       </c>
       <c r="E90">
-        <v>8.771588501190372</v>
+        <v>9.049504173567325</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>-9.04106109631666</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="B91">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="C91">
-        <v>0.03056320647338507</v>
+        <v>-0.2027651330863773</v>
       </c>
       <c r="D91">
-        <v>-8.656141217361</v>
+        <v>-8.900014706644559</v>
       </c>
       <c r="E91">
-        <v>8.71726763030777</v>
+        <v>8.494484440471805</v>
       </c>
       <c r="F91">
-        <v>4.65200156348935</v>
+        <v>5.236798551731603</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="B92">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="C92">
-        <v>0.1735950080774082</v>
+        <v>0.1130382746316829</v>
       </c>
       <c r="D92">
-        <v>-8.513251345453732</v>
+        <v>-8.585029288925384</v>
       </c>
       <c r="E92">
-        <v>8.860441361608547</v>
+        <v>8.811105838188748</v>
       </c>
       <c r="F92">
-        <v>4.839654086184986</v>
+        <v>-5.236798551731603</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="B93">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="C93">
-        <v>0.2352164834428643</v>
+        <v>-0.1410104917110011</v>
       </c>
       <c r="D93">
-        <v>-8.451805107383645</v>
+        <v>-8.839817653790119</v>
       </c>
       <c r="E93">
-        <v>8.922238074269373</v>
+        <v>8.557796670368118</v>
       </c>
       <c r="F93">
-        <v>-5.878085016756707</v>
+        <v>-1.081091610421492</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="B94">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="C94">
-        <v>-0.1193250123529959</v>
+        <v>-0.08957199231020807</v>
       </c>
       <c r="D94">
-        <v>-8.80780949173386</v>
+        <v>-8.786820102865658</v>
       </c>
       <c r="E94">
-        <v>8.569159467027866</v>
+        <v>8.607676118245241</v>
       </c>
       <c r="F94">
-        <v>12.72486494450273</v>
+        <v>0.6500564603093117</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="B95">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="C95">
-        <v>0.3852813796853676</v>
+        <v>-0.0101957824178347</v>
       </c>
       <c r="D95">
-        <v>-8.315191748799094</v>
+        <v>-8.705857899255145</v>
       </c>
       <c r="E95">
-        <v>9.085754508169828</v>
+        <v>8.685466334419475</v>
       </c>
       <c r="F95">
-        <v>1.278556229697259</v>
+        <v>-1.304366319202899</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="B96">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C96">
-        <v>0.1926688185889803</v>
+        <v>-0.04919609662419538</v>
       </c>
       <c r="D96">
-        <v>-8.506244683430168</v>
+        <v>-8.743366626653097</v>
       </c>
       <c r="E96">
-        <v>8.89158232060813</v>
+        <v>8.644974433404707</v>
       </c>
       <c r="F96">
-        <v>-6.951154369774937</v>
+        <v>-1.543580812983958</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="B97">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="C97">
-        <v>-0.1613710666607342</v>
+        <v>-0.07190074661761581</v>
       </c>
       <c r="D97">
-        <v>-8.862863590234218</v>
+        <v>-8.764626756386939</v>
       </c>
       <c r="E97">
-        <v>8.540121456912749</v>
+        <v>8.620825263151708</v>
       </c>
       <c r="F97">
-        <v>4.00434814408408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="B98">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="C98">
-        <v>0.07142142183732147</v>
+        <v>-0.02646138268981286</v>
       </c>
       <c r="D98">
-        <v>-8.629876006205659</v>
+        <v>-8.717559206338464</v>
       </c>
       <c r="E98">
-        <v>8.772718849880302</v>
+        <v>8.664636440958837</v>
       </c>
       <c r="F98">
-        <v>4.923510299768452</v>
+        <v>0.2219756738313095</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="B99">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="C99">
-        <v>0.1903427805839109</v>
+        <v>-0.001999027742103629</v>
       </c>
       <c r="D99">
-        <v>-8.511270156663821</v>
+        <v>-8.69147425233218</v>
       </c>
       <c r="E99">
-        <v>8.891955717831644</v>
+        <v>8.687476196847973</v>
       </c>
       <c r="F99">
-        <v>-2.888287414878565</v>
+        <v>2.409755157906002</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="B100">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="C100">
-        <v>-0.02235582477901921</v>
+        <v>0.0832586908643701</v>
       </c>
       <c r="D100">
-        <v>-8.723125883637911</v>
+        <v>-8.605071119461631</v>
       </c>
       <c r="E100">
-        <v>8.678414234079872</v>
+        <v>8.771588501190372</v>
       </c>
       <c r="F100">
-        <v>1.454571100237878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="B101">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="C101">
-        <v>0.03914656150516937</v>
+        <v>0.03056320647338507</v>
       </c>
       <c r="D101">
-        <v>-8.660180943489804</v>
+        <v>-8.656141217361</v>
       </c>
       <c r="E101">
-        <v>8.738474066500144</v>
+        <v>8.71726763030777</v>
       </c>
       <c r="F101">
-        <v>5.615510282972824</v>
+        <v>4.65200156348935</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="B102">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="C102">
-        <v>0.1993898233322442</v>
+        <v>0.1735950080774082</v>
       </c>
       <c r="D102">
-        <v>-8.500875426157947</v>
+        <v>-8.513251345453732</v>
       </c>
       <c r="E102">
-        <v>8.899655072822434</v>
+        <v>8.860441361608547</v>
       </c>
       <c r="F102">
-        <v>4.992717395650725</v>
+        <v>4.839654086184986</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="B103">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="C103">
-        <v>0.2439917408517775</v>
+        <v>0.2352164834428643</v>
       </c>
       <c r="D103">
-        <v>-8.456541369576398</v>
+        <v>-8.451805107383645</v>
       </c>
       <c r="E103">
-        <v>8.944524851279953</v>
+        <v>8.922238074269373</v>
       </c>
       <c r="F103">
-        <v>0.4858309151076767</v>
+        <v>-5.878085016756707</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="B104">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="C104">
-        <v>0.1100010217412492</v>
+        <v>-0.1193250123529959</v>
       </c>
       <c r="D104">
-        <v>-8.588916488106028</v>
+        <v>-8.80780949173386</v>
       </c>
       <c r="E104">
-        <v>8.808918531588526</v>
+        <v>8.569159467027866</v>
       </c>
       <c r="F104">
-        <v>-2.453107474978111</v>
+        <v>12.72486494450273</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="B105">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="C105">
-        <v>-0.03994846451423406</v>
+        <v>0.3852813796853676</v>
       </c>
       <c r="D105">
-        <v>-8.737786323621616</v>
+        <v>-8.315191748799094</v>
       </c>
       <c r="E105">
-        <v>8.657889394593148</v>
+        <v>9.085754508169828</v>
       </c>
       <c r="F105">
-        <v>-18.09979298634463</v>
+        <v>1.278556229697259</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="B106">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="C106">
-        <v>-0.6305472626726099</v>
+        <v>0.1926688185889803</v>
       </c>
       <c r="D106">
-        <v>-9.353525413420705</v>
+        <v>-8.506244683430168</v>
       </c>
       <c r="E106">
-        <v>8.092430888075484</v>
+        <v>8.89158232060813</v>
       </c>
       <c r="F106">
-        <v>0.1982161203991417</v>
+        <v>-6.951154369774937</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="B107">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C107">
-        <v>-0.2188598773832987</v>
+        <v>-0.1613710666607342</v>
       </c>
       <c r="D107">
-        <v>-8.940271472743806</v>
+        <v>-8.862863590234218</v>
       </c>
       <c r="E107">
-        <v>8.502551717977209</v>
+        <v>8.540121456912749</v>
       </c>
       <c r="F107">
-        <v>4.264211926600225</v>
+        <v>4.00434814408408</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="B108">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="C108">
-        <v>0.07009663901560659</v>
+        <v>0.07142142183732147</v>
       </c>
       <c r="D108">
-        <v>-8.651335154002197</v>
+        <v>-8.629876006205659</v>
       </c>
       <c r="E108">
-        <v>8.79152843203341</v>
+        <v>8.772718849880302</v>
       </c>
       <c r="F108">
-        <v>-1.722530628187968</v>
+        <v>4.923510299768452</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="B109">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="C109">
-        <v>-0.03352294034620995</v>
+        <v>0.1903427805839109</v>
       </c>
       <c r="D109">
-        <v>-8.753596605706102</v>
+        <v>-8.511270156663821</v>
       </c>
       <c r="E109">
-        <v>8.686550725013683</v>
+        <v>8.891955717831644</v>
       </c>
       <c r="F109">
-        <v>-4.541747969079246</v>
+        <v>-2.888287414878565</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="B110">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="C110">
-        <v>-0.163541353495779</v>
+        <v>-0.02235582477901921</v>
       </c>
       <c r="D110">
-        <v>-8.883658470603182</v>
+        <v>-8.723125883637911</v>
       </c>
       <c r="E110">
-        <v>8.556575763611624</v>
+        <v>8.678414234079872</v>
       </c>
       <c r="F110">
-        <v>0.8048333182828493</v>
+        <v>1.454571100237878</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="B111">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C111">
-        <v>-0.03097786896052218</v>
+        <v>0.03914656150516937</v>
       </c>
       <c r="D111">
-        <v>-8.749551928932991</v>
+        <v>-8.660180943489804</v>
       </c>
       <c r="E111">
-        <v>8.687596191011949</v>
+        <v>8.738474066500144</v>
       </c>
       <c r="F111">
-        <v>-4.508960486317726</v>
+        <v>5.615510282972824</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="B112">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="C112">
-        <v>-0.1615614160214609</v>
+        <v>0.1993898233322442</v>
       </c>
       <c r="D112">
-        <v>-8.880157110825907</v>
+        <v>-8.500875426157947</v>
       </c>
       <c r="E112">
-        <v>8.557034278782984</v>
+        <v>8.899655072822434</v>
       </c>
       <c r="F112">
-        <v>-3.195159980660289</v>
+        <v>4.992717395650725</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="B113">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="C113">
-        <v>-0.1655182185416548</v>
+        <v>0.2439917408517775</v>
       </c>
       <c r="D113">
-        <v>-8.883248153460269</v>
+        <v>-8.456541369576398</v>
       </c>
       <c r="E113">
-        <v>8.552211716376959</v>
+        <v>8.944524851279953</v>
       </c>
       <c r="F113">
-        <v>0.2162163004495454</v>
+        <v>0.4858309151076767</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="B114">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="C114">
-        <v>-0.05159666436544705</v>
+        <v>0.1100010217412492</v>
       </c>
       <c r="D114">
-        <v>-8.767720858524992</v>
+        <v>-8.588916488106028</v>
       </c>
       <c r="E114">
-        <v>8.6645275297941</v>
+        <v>8.808918531588526</v>
       </c>
       <c r="F114">
-        <v>-0.6500564603093117</v>
+        <v>-2.453107474978111</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="B115">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="C115">
-        <v>-0.04058373373137536</v>
+        <v>-0.03994846451423406</v>
       </c>
       <c r="D115">
-        <v>-8.755120663228242</v>
+        <v>-8.737786323621616</v>
       </c>
       <c r="E115">
-        <v>8.67395319576549</v>
+        <v>8.657889394593148</v>
       </c>
       <c r="F115">
-        <v>0.2171553513507618</v>
+        <v>-18.09979298634463</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="B116">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="C116">
-        <v>-0.007310405475077816</v>
+        <v>-0.6305472626726099</v>
       </c>
       <c r="D116">
-        <v>-8.720237003056379</v>
+        <v>-9.353525413420705</v>
       </c>
       <c r="E116">
-        <v>8.705616192106223</v>
+        <v>8.092430888075484</v>
       </c>
       <c r="F116">
-        <v>5.486608008594107</v>
+        <v>0.1982161203991417</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="B117">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="C117">
-        <v>0.1813462137964681</v>
+        <v>-0.2188598773832987</v>
       </c>
       <c r="D117">
-        <v>-8.532431593554373</v>
+        <v>-8.940271472743806</v>
       </c>
       <c r="E117">
-        <v>8.895124021147309</v>
+        <v>8.502551717977209</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>4.264211926600225</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="B118">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="C118">
-        <v>0.06470639715298833</v>
+        <v>0.07009663901560659</v>
       </c>
       <c r="D118">
-        <v>-8.64745970670489</v>
+        <v>-8.651335154002197</v>
       </c>
       <c r="E118">
-        <v>8.776872501010867</v>
+        <v>8.79152843203341</v>
       </c>
       <c r="F118">
-        <v>-3.553142837848533</v>
+        <v>-1.722530628187968</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="B119">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="C119">
-        <v>-0.09656681655665578</v>
+        <v>-0.03352294034620995</v>
       </c>
       <c r="D119">
-        <v>-8.808187795748569</v>
+        <v>-8.753596605706102</v>
       </c>
       <c r="E119">
-        <v>8.615054162635257</v>
+        <v>8.686550725013683</v>
       </c>
       <c r="F119">
-        <v>-3.905051487187272</v>
+        <v>-4.541747969079246</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="B120">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="C120">
-        <v>-0.1654084711814836</v>
+        <v>-0.163541353495779</v>
       </c>
       <c r="D120">
-        <v>-8.876600415894108</v>
+        <v>-8.883658470603182</v>
       </c>
       <c r="E120">
-        <v>8.54578347353114</v>
+        <v>8.556575763611624</v>
       </c>
       <c r="F120">
-        <v>-3.374898473664167</v>
+        <v>0.8048333182828493</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="B121">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="C121">
-        <v>-0.1727795242183208</v>
+        <v>-0.03097786896052218</v>
       </c>
       <c r="D121">
-        <v>-8.883199710642044</v>
+        <v>-8.749551928932991</v>
       </c>
       <c r="E121">
-        <v>8.537640662205403</v>
+        <v>8.687596191011949</v>
       </c>
       <c r="F121">
-        <v>-2.784402617117276</v>
+        <v>-4.508960486317726</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="B122">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="C122">
-        <v>-0.1553530023777042</v>
+        <v>-0.1615614160214609</v>
       </c>
       <c r="D122">
-        <v>-8.864718088864983</v>
+        <v>-8.880157110825907</v>
       </c>
       <c r="E122">
-        <v>8.554012084109573</v>
+        <v>8.557034278782984</v>
       </c>
       <c r="F122">
-        <v>-1.660773639966084</v>
+        <v>-3.195159980660289</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="B123">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C123">
-        <v>-0.1119565161032927</v>
+        <v>-0.1655182185416548</v>
       </c>
       <c r="D123">
-        <v>-8.819895728622436</v>
+        <v>-8.883248153460269</v>
       </c>
       <c r="E123">
-        <v>8.595982696415851</v>
+        <v>8.552211716376959</v>
       </c>
       <c r="F123">
-        <v>0.2389487397381096</v>
+        <v>0.2162163004495454</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="B124">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="C124">
-        <v>-0.03131240520370446</v>
+        <v>-0.05159666436544705</v>
       </c>
       <c r="D124">
-        <v>-8.737651938645488</v>
+        <v>-8.767720858524992</v>
       </c>
       <c r="E124">
-        <v>8.675027128238078</v>
+        <v>8.6645275297941</v>
       </c>
       <c r="F124">
-        <v>-2.171376022378357</v>
+        <v>-0.6500564603093117</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="B125">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="C125">
-        <v>-0.08548618477831627</v>
+        <v>-0.04058373373137536</v>
       </c>
       <c r="D125">
-        <v>-8.790590413515824</v>
+        <v>-8.755120663228242</v>
       </c>
       <c r="E125">
-        <v>8.619618043959191</v>
+        <v>8.67395319576549</v>
       </c>
       <c r="F125">
-        <v>4.296603588344272</v>
+        <v>0.2171553513507618</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B126">
+        <v>2697</v>
+      </c>
+      <c r="C126">
+        <v>-0.007310405475077816</v>
+      </c>
+      <c r="D126">
+        <v>-8.720237003056379</v>
+      </c>
+      <c r="E126">
+        <v>8.705616192106223</v>
+      </c>
+      <c r="F126">
+        <v>5.486608008594107</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B127">
+        <v>2698</v>
+      </c>
+      <c r="C127">
+        <v>0.1813462137964681</v>
+      </c>
+      <c r="D127">
+        <v>-8.532431593554373</v>
+      </c>
+      <c r="E127">
+        <v>8.895124021147309</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B128">
+        <v>2699</v>
+      </c>
+      <c r="C128">
+        <v>0.06470639715298833</v>
+      </c>
+      <c r="D128">
+        <v>-8.64745970670489</v>
+      </c>
+      <c r="E128">
+        <v>8.776872501010867</v>
+      </c>
+      <c r="F128">
+        <v>-3.553142837848533</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B129">
+        <v>2700</v>
+      </c>
+      <c r="C129">
+        <v>-0.09656681655665578</v>
+      </c>
+      <c r="D129">
+        <v>-8.808187795748569</v>
+      </c>
+      <c r="E129">
+        <v>8.615054162635257</v>
+      </c>
+      <c r="F129">
+        <v>-3.905051487187272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B130">
+        <v>2701</v>
+      </c>
+      <c r="C130">
+        <v>-0.1654084711814836</v>
+      </c>
+      <c r="D130">
+        <v>-8.876600415894108</v>
+      </c>
+      <c r="E130">
+        <v>8.54578347353114</v>
+      </c>
+      <c r="F130">
+        <v>-3.374898473664167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B131">
+        <v>2702</v>
+      </c>
+      <c r="C131">
+        <v>-0.1727795242183208</v>
+      </c>
+      <c r="D131">
+        <v>-8.883199710642044</v>
+      </c>
+      <c r="E131">
+        <v>8.537640662205403</v>
+      </c>
+      <c r="F131">
+        <v>-2.784402617117276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B132">
+        <v>2703</v>
+      </c>
+      <c r="C132">
+        <v>-0.1553530023777042</v>
+      </c>
+      <c r="D132">
+        <v>-8.864718088864983</v>
+      </c>
+      <c r="E132">
+        <v>8.554012084109573</v>
+      </c>
+      <c r="F132">
+        <v>-1.660773639966084</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B133">
+        <v>2704</v>
+      </c>
+      <c r="C133">
+        <v>-0.1119565161032927</v>
+      </c>
+      <c r="D133">
+        <v>-8.819895728622436</v>
+      </c>
+      <c r="E133">
+        <v>8.595982696415851</v>
+      </c>
+      <c r="F133">
+        <v>0.2389487397381096</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B134">
+        <v>2705</v>
+      </c>
+      <c r="C134">
+        <v>-0.03131240520370446</v>
+      </c>
+      <c r="D134">
+        <v>-8.737651938645488</v>
+      </c>
+      <c r="E134">
+        <v>8.675027128238078</v>
+      </c>
+      <c r="F134">
+        <v>-2.171376022378357</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B135">
+        <v>2706</v>
+      </c>
+      <c r="C135">
+        <v>-0.08548618477831627</v>
+      </c>
+      <c r="D135">
+        <v>-8.790590413515824</v>
+      </c>
+      <c r="E135">
+        <v>8.619618043959191</v>
+      </c>
+      <c r="F135">
+        <v>4.296603588344272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>2708</v>
       </c>
-      <c r="B126">
+      <c r="B136">
         <v>2707</v>
       </c>
-      <c r="C126">
+      <c r="C136">
         <v>0.1163203730319005</v>
       </c>
-      <c r="D126">
+      <c r="D136">
         <v>-8.588740882833862</v>
       </c>
-      <c r="E126">
+      <c r="E136">
         <v>8.821381628897663</v>
       </c>
-      <c r="F126">
+      <c r="F136">
         <v>1.392133851860855</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2701 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.02699002714861459</v>
+        <v>0.07487453243809841</v>
       </c>
       <c r="D2">
-        <v>-8.629744150613691</v>
+        <v>-8.512436274938405</v>
       </c>
       <c r="E2">
-        <v>8.57576409631646</v>
+        <v>8.662185339814602</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.515180502060254</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="B3">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.01742015788586847</v>
+        <v>6.142521579799443E-05</v>
       </c>
       <c r="D3">
-        <v>-8.583662812324448</v>
+        <v>-8.58576715762983</v>
       </c>
       <c r="E3">
-        <v>8.618503128096187</v>
+        <v>8.585890008061424</v>
       </c>
       <c r="F3">
-        <v>1.509462622248492</v>
+        <v>-1.134227660393439</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="B4">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="C4">
-        <v>0.03713341266649972</v>
+        <v>-0.03631475089364777</v>
       </c>
       <c r="D4">
-        <v>-8.562472346493557</v>
+        <v>-8.620593790108401</v>
       </c>
       <c r="E4">
-        <v>8.636739171826555</v>
+        <v>8.547964288321104</v>
       </c>
       <c r="F4">
-        <v>-0.7518832414027621</v>
+        <v>-0.3809528416668151</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="B5">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.04813766115400103</v>
+        <v>0.0113013168792957</v>
       </c>
       <c r="D5">
-        <v>-8.646128073551834</v>
+        <v>-8.571328072279128</v>
       </c>
       <c r="E5">
-        <v>8.549852751243831</v>
+        <v>8.593930706037719</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.890415463915307</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="B6">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.03117305448663466</v>
+        <v>0.0533192860340761</v>
       </c>
       <c r="D6">
-        <v>-8.565149180254208</v>
+        <v>-8.527956685086123</v>
       </c>
       <c r="E6">
-        <v>8.627495289227477</v>
+        <v>8.634595257154276</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.3752349618550532</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="B7">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.02018685329096214</v>
+        <v>-0.04649368858312156</v>
       </c>
       <c r="D7">
-        <v>-8.614841764424893</v>
+        <v>-8.626127495578782</v>
       </c>
       <c r="E7">
-        <v>8.574468057842969</v>
+        <v>8.53314011841254</v>
       </c>
       <c r="F7">
-        <v>0.3766482795477089</v>
+        <v>-1.897590145900541</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="B8">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.02514518436496316</v>
+        <v>-0.06308957744575432</v>
       </c>
       <c r="D8">
-        <v>-8.567856939572389</v>
+        <v>-8.643575074759378</v>
       </c>
       <c r="E8">
-        <v>8.618147308302314</v>
+        <v>8.517395919867868</v>
       </c>
       <c r="F8">
-        <v>-0.3766482795477089</v>
+        <v>1.142869582362227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="B9">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="C9">
-        <v>-0.02835362627514246</v>
+        <v>0.04260203354235841</v>
       </c>
       <c r="D9">
-        <v>-8.619704270222169</v>
+        <v>-8.536351951220729</v>
       </c>
       <c r="E9">
-        <v>8.562997017671883</v>
+        <v>8.621556018305446</v>
       </c>
       <c r="F9">
-        <v>1.8692133012153</v>
+        <v>0.7547205635383136</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="B10">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.07833408169553024</v>
+        <v>0.02270731839923479</v>
       </c>
       <c r="D10">
-        <v>-8.511664096727507</v>
+        <v>-8.554633278991282</v>
       </c>
       <c r="E10">
-        <v>8.668332260118568</v>
+        <v>8.600047915789752</v>
       </c>
       <c r="F10">
-        <v>-2.62679268206103</v>
+        <v>-0.7547205635383136</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="B11">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.1346411195165129</v>
+        <v>-0.02699999432125525</v>
       </c>
       <c r="D11">
-        <v>-8.723609535543977</v>
+        <v>-8.602736991618306</v>
       </c>
       <c r="E11">
-        <v>8.454327296510952</v>
+        <v>8.548737002975797</v>
       </c>
       <c r="F11">
-        <v>-0.3809528416668151</v>
+        <v>-0.7604599385219402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="B12">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="C12">
-        <v>0.07487453243809841</v>
+        <v>-0.02388777163551051</v>
       </c>
       <c r="D12">
-        <v>-8.512436274938405</v>
+        <v>-8.598016829867678</v>
       </c>
       <c r="E12">
-        <v>8.662185339814602</v>
+        <v>8.550241286596655</v>
       </c>
       <c r="F12">
-        <v>1.515180502060254</v>
+        <v>0.3809528416668151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="B13">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="C13">
-        <v>6.142521579799443E-05</v>
+        <v>0.01448307871293404</v>
       </c>
       <c r="D13">
-        <v>-8.58576715762983</v>
+        <v>-8.558006911369416</v>
       </c>
       <c r="E13">
-        <v>8.585890008061424</v>
+        <v>8.586973068795283</v>
       </c>
       <c r="F13">
-        <v>-1.134227660393439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="B14">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.03631475089364777</v>
+        <v>-0.0009765246060626385</v>
       </c>
       <c r="D14">
-        <v>-8.620593790108401</v>
+        <v>-8.571814654150637</v>
       </c>
       <c r="E14">
-        <v>8.547964288321104</v>
+        <v>8.569861604938511</v>
       </c>
       <c r="F14">
-        <v>-0.3809528416668151</v>
+        <v>-0.763362485507102</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B15">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="C15">
-        <v>0.0113013168792957</v>
+        <v>-0.0257302968033205</v>
       </c>
       <c r="D15">
-        <v>-8.571328072279128</v>
+        <v>-8.594967314413502</v>
       </c>
       <c r="E15">
-        <v>8.593930706037719</v>
+        <v>8.54350672080686</v>
       </c>
       <c r="F15">
-        <v>1.890415463915307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="B16">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.0533192860340761</v>
+        <v>0.00174408567409461</v>
       </c>
       <c r="D16">
-        <v>-8.527956685086123</v>
+        <v>-8.56584299578503</v>
       </c>
       <c r="E16">
-        <v>8.634595257154276</v>
+        <v>8.569331167133218</v>
       </c>
       <c r="F16">
-        <v>-0.3752349618550532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="B17">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.04649368858312156</v>
+        <v>-0.0001182165372974376</v>
       </c>
       <c r="D17">
-        <v>-8.626127495578782</v>
+        <v>-8.566056259686457</v>
       </c>
       <c r="E17">
-        <v>8.53314011841254</v>
+        <v>8.565819826611863</v>
       </c>
       <c r="F17">
-        <v>-1.897590145900541</v>
+        <v>-0.3838776307166114</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="B18">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.06308957744575432</v>
+        <v>-0.01296454285259037</v>
       </c>
       <c r="D18">
-        <v>-8.643575074759378</v>
+        <v>-8.577267200555324</v>
       </c>
       <c r="E18">
-        <v>8.517395919867868</v>
+        <v>8.551338114850145</v>
       </c>
       <c r="F18">
-        <v>1.142869582362227</v>
+        <v>1.147240116223713</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="B19">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.04260203354235841</v>
+        <v>0.03963774233215984</v>
       </c>
       <c r="D19">
-        <v>-8.536351951220729</v>
+        <v>-8.523133898096155</v>
       </c>
       <c r="E19">
-        <v>8.621556018305446</v>
+        <v>8.602409382760474</v>
       </c>
       <c r="F19">
-        <v>0.7547205635383136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="B20">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="C20">
-        <v>0.02270731839923479</v>
+        <v>-0.002686559913934323</v>
       </c>
       <c r="D20">
-        <v>-8.554633278991282</v>
+        <v>-8.563812140937857</v>
       </c>
       <c r="E20">
-        <v>8.600047915789752</v>
+        <v>8.558439021109988</v>
       </c>
       <c r="F20">
-        <v>-0.7547205635383136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="B21">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="C21">
-        <v>-0.02699999432125525</v>
+        <v>0.0001820798618107268</v>
       </c>
       <c r="D21">
-        <v>-8.602736991618306</v>
+        <v>-8.559298241804395</v>
       </c>
       <c r="E21">
-        <v>8.548737002975797</v>
+        <v>8.559662401528016</v>
       </c>
       <c r="F21">
-        <v>-0.7604599385219402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="B22">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="C22">
-        <v>-0.02388777163551051</v>
+        <v>-1.234079027273399E-05</v>
       </c>
       <c r="D22">
-        <v>-8.598016829867678</v>
+        <v>-8.557848347909621</v>
       </c>
       <c r="E22">
-        <v>8.550241286596655</v>
+        <v>8.557823666329076</v>
       </c>
       <c r="F22">
-        <v>0.3809528416668151</v>
+        <v>1.134227660393439</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="B23">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.01448307871293404</v>
+        <v>0.03831905914460405</v>
       </c>
       <c r="D23">
-        <v>-8.558006911369416</v>
+        <v>-8.517984490013966</v>
       </c>
       <c r="E23">
-        <v>8.586973068795283</v>
+        <v>8.594622608303172</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-0.7547205635383136</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="B24">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.0009765246060626385</v>
+        <v>-0.02807996713750395</v>
       </c>
       <c r="D24">
-        <v>-8.571814654150637</v>
+        <v>-8.582795253401834</v>
       </c>
       <c r="E24">
-        <v>8.569861604938511</v>
+        <v>8.526635319126825</v>
       </c>
       <c r="F24">
-        <v>-0.763362485507102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="B25">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="C25">
-        <v>-0.0257302968033205</v>
+        <v>0.001902509062665934</v>
       </c>
       <c r="D25">
-        <v>-8.594967314413502</v>
+        <v>-8.551171374833636</v>
       </c>
       <c r="E25">
-        <v>8.54350672080686</v>
+        <v>8.554976392958967</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.503787736454054</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="B26">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.00174408567409461</v>
+        <v>0.05065600362924565</v>
       </c>
       <c r="D26">
-        <v>-8.56584299578503</v>
+        <v>-8.500970237338336</v>
       </c>
       <c r="E26">
-        <v>8.569331167133218</v>
+        <v>8.602282244596829</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5.445991713238119</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="B27">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="C27">
-        <v>-0.0001182165372974376</v>
+        <v>0.1813078015180749</v>
       </c>
       <c r="D27">
-        <v>-8.566056259686457</v>
+        <v>-8.371186184699958</v>
       </c>
       <c r="E27">
-        <v>8.565819826611863</v>
+        <v>8.733801787736109</v>
       </c>
       <c r="F27">
-        <v>-0.3838776307166114</v>
+        <v>3.130690462504404</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="B28">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="C28">
-        <v>-0.01296454285259037</v>
+        <v>0.09554598113045612</v>
       </c>
       <c r="D28">
-        <v>-8.577267200555324</v>
+        <v>-8.456062857228765</v>
       </c>
       <c r="E28">
-        <v>8.551338114850145</v>
+        <v>8.647154819489678</v>
       </c>
       <c r="F28">
-        <v>1.147240116223713</v>
+        <v>2.368977112240511</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="B29">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="C29">
-        <v>0.03963774233215984</v>
+        <v>0.0775538068723407</v>
       </c>
       <c r="D29">
-        <v>-8.523133898096155</v>
+        <v>-8.470712518771791</v>
       </c>
       <c r="E29">
-        <v>8.602409382760474</v>
+        <v>8.625820132516473</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>23.70926316917394</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="B30">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.002686559913934323</v>
+        <v>0.8462082662456778</v>
       </c>
       <c r="D30">
-        <v>-8.563812140937857</v>
+        <v>-7.750231963201787</v>
       </c>
       <c r="E30">
-        <v>8.558439021109988</v>
+        <v>9.442648495693142</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6.635086202411244</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="B31">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="C31">
-        <v>0.0001820798618107268</v>
+        <v>0.5330005517104635</v>
       </c>
       <c r="D31">
-        <v>-8.559298241804395</v>
+        <v>-8.064628381571939</v>
       </c>
       <c r="E31">
-        <v>8.559662401528016</v>
+        <v>9.130629484992866</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>18.02618238309446</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="B32">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="C32">
-        <v>-1.234079027273399E-05</v>
+        <v>0.9762678747298903</v>
       </c>
       <c r="D32">
-        <v>-8.557848347909621</v>
+        <v>-7.645652330720257</v>
       </c>
       <c r="E32">
-        <v>8.557823666329076</v>
+        <v>9.598188080180037</v>
       </c>
       <c r="F32">
-        <v>1.134227660393439</v>
+        <v>-9.510401549063729</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="B33">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.03831905914460405</v>
+        <v>-0.02738379865578278</v>
       </c>
       <c r="D33">
-        <v>-8.517984490013966</v>
+        <v>-8.656920039351451</v>
       </c>
       <c r="E33">
-        <v>8.594622608303172</v>
+        <v>8.602152442039888</v>
       </c>
       <c r="F33">
-        <v>-0.7547205635383136</v>
+        <v>-10.25928701624084</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="B34">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.02807996713750395</v>
+        <v>-0.4176705240334879</v>
       </c>
       <c r="D34">
-        <v>-8.582795253401834</v>
+        <v>-9.054391154440982</v>
       </c>
       <c r="E34">
-        <v>8.526635319126825</v>
+        <v>8.219050106374006</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>-1.774444529907182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="B35">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.001902509062665934</v>
+        <v>-0.1911009846256848</v>
       </c>
       <c r="D35">
-        <v>-8.551171374833636</v>
+        <v>-8.826326438183564</v>
       </c>
       <c r="E35">
-        <v>8.554976392958967</v>
+        <v>8.444124468932195</v>
       </c>
       <c r="F35">
-        <v>1.503787736454054</v>
+        <v>-2.853630726493428</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="B36">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.05065600362924565</v>
+        <v>-0.1664322878886916</v>
       </c>
       <c r="D36">
-        <v>-8.500970237338336</v>
+        <v>-8.800610219654789</v>
       </c>
       <c r="E36">
-        <v>8.602282244596829</v>
+        <v>8.467745643877407</v>
       </c>
       <c r="F36">
-        <v>5.445991713238119</v>
+        <v>-6.243547094079283</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="B37">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.1813078015180749</v>
+        <v>-0.2920024019968401</v>
       </c>
       <c r="D37">
-        <v>-8.371186184699958</v>
+        <v>-8.927667942559758</v>
       </c>
       <c r="E37">
-        <v>8.733801787736109</v>
+        <v>8.343663138566079</v>
       </c>
       <c r="F37">
-        <v>3.130690462504404</v>
+        <v>-1.694955831377332</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="B38">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.09554598113045612</v>
+        <v>-0.1561075042214536</v>
       </c>
       <c r="D38">
-        <v>-8.456062857228765</v>
+        <v>-8.790291319804579</v>
       </c>
       <c r="E38">
-        <v>8.647154819489678</v>
+        <v>8.47807631136167</v>
       </c>
       <c r="F38">
-        <v>2.368977112240511</v>
+        <v>1.414450738616502</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="B39">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.0775538068723407</v>
+        <v>0.007016051554320224</v>
       </c>
       <c r="D39">
-        <v>-8.470712518771791</v>
+        <v>-8.625728918592865</v>
       </c>
       <c r="E39">
-        <v>8.625820132516473</v>
+        <v>8.639761021701505</v>
       </c>
       <c r="F39">
-        <v>23.70926316917394</v>
+        <v>7.571182173569646</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="B40">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C40">
-        <v>0.8462082662456778</v>
+        <v>0.2957959982203624</v>
       </c>
       <c r="D40">
-        <v>-7.750231963201787</v>
+        <v>-8.340155588665862</v>
       </c>
       <c r="E40">
-        <v>9.442648495693142</v>
+        <v>8.931747585106585</v>
       </c>
       <c r="F40">
-        <v>6.635086202411244</v>
+        <v>-8.985632912186148</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="B41">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="C41">
-        <v>0.5330005517104635</v>
+        <v>-0.2483312898488257</v>
       </c>
       <c r="D41">
-        <v>-8.064628381571939</v>
+        <v>-8.889933745501468</v>
       </c>
       <c r="E41">
-        <v>9.130629484992866</v>
+        <v>8.393271165803815</v>
       </c>
       <c r="F41">
-        <v>18.02618238309446</v>
+        <v>0.85106896679088</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="B42">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.9762678747298903</v>
+        <v>-0.04413441510470156</v>
       </c>
       <c r="D42">
-        <v>-7.645652330720257</v>
+        <v>-8.684191936292136</v>
       </c>
       <c r="E42">
-        <v>9.598188080180037</v>
+        <v>8.595923106082731</v>
       </c>
       <c r="F42">
-        <v>-9.510401549063729</v>
+        <v>-3.448617607116944</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="B43">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.02738379865578278</v>
+        <v>-0.1419325172806489</v>
       </c>
       <c r="D43">
-        <v>-8.656920039351451</v>
+        <v>-8.781325744699247</v>
       </c>
       <c r="E43">
-        <v>8.602152442039888</v>
+        <v>8.497460710137949</v>
       </c>
       <c r="F43">
-        <v>-10.25928701624084</v>
+        <v>-3.571808260207909</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="B44">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="C44">
-        <v>-0.4176705240334879</v>
+        <v>-0.1778832202799023</v>
       </c>
       <c r="D44">
-        <v>-9.054391154440982</v>
+        <v>-8.816626999135483</v>
       </c>
       <c r="E44">
-        <v>8.219050106374006</v>
+        <v>8.460860558575678</v>
       </c>
       <c r="F44">
-        <v>-1.774444529907182</v>
+        <v>-4.652001563489261</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="B45">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.1911009846256848</v>
+        <v>-0.2317116271713155</v>
       </c>
       <c r="D45">
-        <v>-8.826326438183564</v>
+        <v>-8.870504929797171</v>
       </c>
       <c r="E45">
-        <v>8.444124468932195</v>
+        <v>8.407081675454538</v>
       </c>
       <c r="F45">
-        <v>-2.853630726493428</v>
+        <v>4.652001563489261</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="B46">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="C46">
-        <v>-0.1664322878886916</v>
+        <v>0.1025409190708781</v>
       </c>
       <c r="D46">
-        <v>-8.800610219654789</v>
+        <v>-8.536624996202244</v>
       </c>
       <c r="E46">
-        <v>8.467745643877407</v>
+        <v>8.741706834343999</v>
       </c>
       <c r="F46">
-        <v>-6.243547094079283</v>
+        <v>-5.288946392037275</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="B47">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="C47">
-        <v>-0.2920024019968401</v>
+        <v>-0.1631790719125095</v>
       </c>
       <c r="D47">
-        <v>-8.927667942559758</v>
+        <v>-8.803159389900383</v>
       </c>
       <c r="E47">
-        <v>8.343663138566079</v>
+        <v>8.476801246075365</v>
       </c>
       <c r="F47">
-        <v>-1.694955831377332</v>
+        <v>5.288946392037275</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="B48">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.1561075042214536</v>
+        <v>0.1402434307886111</v>
       </c>
       <c r="D48">
-        <v>-8.790291319804579</v>
+        <v>-8.500606618368513</v>
       </c>
       <c r="E48">
-        <v>8.47807631136167</v>
+        <v>8.781093479945737</v>
       </c>
       <c r="F48">
-        <v>1.414450738616502</v>
+        <v>-1.834913866819665</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="B49">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="C49">
-        <v>0.007016051554320224</v>
+        <v>-0.02111661280165833</v>
       </c>
       <c r="D49">
-        <v>-8.625728918592865</v>
+        <v>-8.660653595485464</v>
       </c>
       <c r="E49">
-        <v>8.639761021701505</v>
+        <v>8.618420369882148</v>
       </c>
       <c r="F49">
-        <v>7.571182173569646</v>
+        <v>9.137427368308693</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="B50">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C50">
-        <v>0.2957959982203624</v>
+        <v>0.3206302870527811</v>
       </c>
       <c r="D50">
-        <v>-8.340155588665862</v>
+        <v>-8.324357491426374</v>
       </c>
       <c r="E50">
-        <v>8.931747585106585</v>
+        <v>8.965618065531936</v>
       </c>
       <c r="F50">
-        <v>-8.985632912186148</v>
+        <v>2.777956410707549</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="B51">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="C51">
-        <v>-0.2483312898488257</v>
+        <v>0.2109041237780043</v>
       </c>
       <c r="D51">
-        <v>-8.889933745501468</v>
+        <v>-8.432945653583026</v>
       </c>
       <c r="E51">
-        <v>8.393271165803815</v>
+        <v>8.854753901139034</v>
       </c>
       <c r="F51">
-        <v>0.85106896679088</v>
+        <v>2.702867238791917</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="B52">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.04413441510470156</v>
+        <v>0.1683555612266274</v>
       </c>
       <c r="D52">
-        <v>-8.684191936292136</v>
+        <v>-8.474374990389558</v>
       </c>
       <c r="E52">
-        <v>8.595923106082731</v>
+        <v>8.811086112842814</v>
       </c>
       <c r="F52">
-        <v>-3.448617607116944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="B53">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="C53">
-        <v>-0.1419325172806489</v>
+        <v>0.05559571070697503</v>
       </c>
       <c r="D53">
-        <v>-8.781325744699247</v>
+        <v>-8.585496462396847</v>
       </c>
       <c r="E53">
-        <v>8.497460710137949</v>
+        <v>8.696687883810796</v>
       </c>
       <c r="F53">
-        <v>-3.571808260207909</v>
+        <v>4.178153401495521</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="B54">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="C54">
-        <v>-0.1778832202799023</v>
+        <v>0.172431204682818</v>
       </c>
       <c r="D54">
-        <v>-8.816626999135483</v>
+        <v>-8.468454716888278</v>
       </c>
       <c r="E54">
-        <v>8.460860558575678</v>
+        <v>8.813317126253914</v>
       </c>
       <c r="F54">
-        <v>-4.652001563489261</v>
+        <v>3.764559961636671</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="B55">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="C55">
-        <v>-0.2317116271713155</v>
+        <v>0.1977456419681316</v>
       </c>
       <c r="D55">
-        <v>-8.870504929797171</v>
+        <v>-8.44258906000392</v>
       </c>
       <c r="E55">
-        <v>8.407081675454538</v>
+        <v>8.838080343940183</v>
       </c>
       <c r="F55">
-        <v>4.652001563489261</v>
+        <v>1.224005489450164</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="B56">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.1025409190708781</v>
+        <v>0.1122989635920391</v>
       </c>
       <c r="D56">
-        <v>-8.536624996202244</v>
+        <v>-8.526486101821936</v>
       </c>
       <c r="E56">
-        <v>8.741706834343999</v>
+        <v>8.751084029006014</v>
       </c>
       <c r="F56">
-        <v>-5.288946392037275</v>
+        <v>6.133998059935575</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="B57">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="C57">
-        <v>-0.1631790719125095</v>
+        <v>0.2677392288547793</v>
       </c>
       <c r="D57">
-        <v>-8.803159389900383</v>
+        <v>-8.372463789200765</v>
       </c>
       <c r="E57">
-        <v>8.476801246075365</v>
+        <v>8.907942246910324</v>
       </c>
       <c r="F57">
-        <v>5.288946392037275</v>
+        <v>4.475019579861517</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="B58">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.1402434307886111</v>
+        <v>0.2626801734618338</v>
       </c>
       <c r="D58">
-        <v>-8.500606618368513</v>
+        <v>-8.377375750671931</v>
       </c>
       <c r="E58">
-        <v>8.781093479945737</v>
+        <v>8.902736097595596</v>
       </c>
       <c r="F58">
-        <v>-1.834913866819665</v>
+        <v>2.804930380989923</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="B59">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.02111661280165833</v>
+        <v>0.1989633811920328</v>
       </c>
       <c r="D59">
-        <v>-8.660653595485464</v>
+        <v>-8.439999910185477</v>
       </c>
       <c r="E59">
-        <v>8.618420369882148</v>
+        <v>8.837926672569544</v>
       </c>
       <c r="F59">
-        <v>9.137427368308693</v>
+        <v>15.71855835224119</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="B60">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.3206302870527811</v>
+        <v>0.6905414215203463</v>
       </c>
       <c r="D60">
-        <v>-8.324357491426374</v>
+        <v>-7.96702733600135</v>
       </c>
       <c r="E60">
-        <v>8.965618065531936</v>
+        <v>9.348110179042042</v>
       </c>
       <c r="F60">
-        <v>2.777956410707549</v>
+        <v>16.70540846631665</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="B61">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.2109041237780043</v>
+        <v>1.013181973430176</v>
       </c>
       <c r="D61">
-        <v>-8.432945653583026</v>
+        <v>-7.664154361520068</v>
       </c>
       <c r="E61">
-        <v>8.854753901139034</v>
+        <v>9.690518308380419</v>
       </c>
       <c r="F61">
-        <v>2.702867238791917</v>
+        <v>-16.70540846631665</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="B62">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="C62">
-        <v>0.1683555612266274</v>
+        <v>-0.3356044148129653</v>
       </c>
       <c r="D62">
-        <v>-8.474374990389558</v>
+        <v>-9.037312070262676</v>
       </c>
       <c r="E62">
-        <v>8.811086112842814</v>
+        <v>8.366103240636743</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-1.2808958292581</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="B63">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.05559571070697503</v>
+        <v>-0.1636793876224237</v>
       </c>
       <c r="D63">
-        <v>-8.585496462396847</v>
+        <v>-8.863814727799022</v>
       </c>
       <c r="E63">
-        <v>8.696687883810796</v>
+        <v>8.536455952554176</v>
       </c>
       <c r="F63">
-        <v>4.178153401495521</v>
+        <v>5.202967144586257</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="B64">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.172431204682818</v>
+        <v>0.1390694684650444</v>
       </c>
       <c r="D64">
-        <v>-8.468454716888278</v>
+        <v>-8.561824642933646</v>
       </c>
       <c r="E64">
-        <v>8.813317126253914</v>
+        <v>8.839963579863733</v>
       </c>
       <c r="F64">
-        <v>3.764559961636671</v>
+        <v>-5.571971253331665</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="B65">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.1977456419681316</v>
+        <v>-0.1579299453450826</v>
       </c>
       <c r="D65">
-        <v>-8.44258906000392</v>
+        <v>-8.85990027952759</v>
       </c>
       <c r="E65">
-        <v>8.838080343940183</v>
+        <v>8.544040388837423</v>
       </c>
       <c r="F65">
-        <v>1.224005489450164</v>
+        <v>0.3690041087454077</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="B66">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.1122989635920391</v>
+        <v>-0.04083746233073099</v>
       </c>
       <c r="D66">
-        <v>-8.526486101821936</v>
+        <v>-8.741187089003541</v>
       </c>
       <c r="E66">
-        <v>8.751084029006014</v>
+        <v>8.659512164342077</v>
       </c>
       <c r="F66">
-        <v>6.133998059935575</v>
+        <v>-2.990877139257275</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="B67">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="C67">
-        <v>0.2677392288547793</v>
+        <v>-0.1241669713994913</v>
       </c>
       <c r="D67">
-        <v>-8.372463789200765</v>
+        <v>-8.823599377168129</v>
       </c>
       <c r="E67">
-        <v>8.907942246910324</v>
+        <v>8.575265434369147</v>
       </c>
       <c r="F67">
-        <v>4.475019579861517</v>
+        <v>-4.860042884963356</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="B68">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="C68">
-        <v>0.2626801734618338</v>
+        <v>-0.223278789107799</v>
       </c>
       <c r="D68">
-        <v>-8.377375750671931</v>
+        <v>-8.922938255261258</v>
       </c>
       <c r="E68">
-        <v>8.902736097595596</v>
+        <v>8.476380677045661</v>
       </c>
       <c r="F68">
-        <v>2.804930380989923</v>
+        <v>-2.215599189720852</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="B69">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="C69">
-        <v>0.1989633811920328</v>
+        <v>-0.1605207315356817</v>
       </c>
       <c r="D69">
-        <v>-8.439999910185477</v>
+        <v>-8.858869172330287</v>
       </c>
       <c r="E69">
-        <v>8.837926672569544</v>
+        <v>8.537827709258924</v>
       </c>
       <c r="F69">
-        <v>15.71855835224119</v>
+        <v>-1.023550389402672</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="B70">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.6905414215203463</v>
+        <v>-0.09419824591489545</v>
       </c>
       <c r="D70">
-        <v>-7.96702733600135</v>
+        <v>-8.790968035614018</v>
       </c>
       <c r="E70">
-        <v>9.348110179042042</v>
+        <v>8.602571543784226</v>
       </c>
       <c r="F70">
-        <v>16.70540846631665</v>
+        <v>2.839947452169778</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="B71">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="C71">
-        <v>1.013181973430176</v>
+        <v>0.07331993757895039</v>
       </c>
       <c r="D71">
-        <v>-7.664154361520068</v>
+        <v>-8.622526690212696</v>
       </c>
       <c r="E71">
-        <v>9.690518308380419</v>
+        <v>8.769166565370599</v>
       </c>
       <c r="F71">
-        <v>-16.70540846631665</v>
+        <v>-4.709160753384989</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="B72">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="C72">
-        <v>-0.3356044148129653</v>
+        <v>-0.14863731915288</v>
       </c>
       <c r="D72">
-        <v>-9.037312070262676</v>
+        <v>-8.844749252729351</v>
       </c>
       <c r="E72">
-        <v>8.366103240636743</v>
+        <v>8.547474614423592</v>
       </c>
       <c r="F72">
-        <v>-1.2808958292581</v>
+        <v>-3.629000140520056</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="B73">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.1636793876224237</v>
+        <v>-0.1872409592658515</v>
       </c>
       <c r="D73">
-        <v>-8.863814727799022</v>
+        <v>-8.882722213590165</v>
       </c>
       <c r="E73">
-        <v>8.536455952554176</v>
+        <v>8.508240295058462</v>
       </c>
       <c r="F73">
-        <v>5.202967144586257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="B74">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C74">
-        <v>0.1390694684650444</v>
+        <v>-0.06542168148693785</v>
       </c>
       <c r="D74">
-        <v>-8.561824642933646</v>
+        <v>-8.759268129067664</v>
       </c>
       <c r="E74">
-        <v>8.839963579863733</v>
+        <v>8.628424766093787</v>
       </c>
       <c r="F74">
-        <v>-5.571971253331665</v>
+        <v>0.2171553513507618</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="B75">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="C75">
-        <v>-0.1579299453450826</v>
+        <v>-0.01475147022195632</v>
       </c>
       <c r="D75">
-        <v>-8.85990027952759</v>
+        <v>-8.706967740218499</v>
       </c>
       <c r="E75">
-        <v>8.544040388837423</v>
+        <v>8.677464799774587</v>
       </c>
       <c r="F75">
-        <v>0.3690041087454077</v>
+        <v>-0.2171553513507618</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="B76">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="C76">
-        <v>-0.04083746233073099</v>
+        <v>-0.01323058837774153</v>
       </c>
       <c r="D76">
-        <v>-8.741187089003541</v>
+        <v>-8.703814403237731</v>
       </c>
       <c r="E76">
-        <v>8.659512164342077</v>
+        <v>8.677353226482248</v>
       </c>
       <c r="F76">
-        <v>-2.990877139257275</v>
+        <v>0.8658062743114314</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="B77">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.1241669713994913</v>
+        <v>0.02755856321647548</v>
       </c>
       <c r="D77">
-        <v>-8.823599377168129</v>
+        <v>-8.661454543232763</v>
       </c>
       <c r="E77">
-        <v>8.575265434369147</v>
+        <v>8.716571669665713</v>
       </c>
       <c r="F77">
-        <v>-4.860042884963356</v>
+        <v>-1.958713327530504</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="B78">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.223278789107799</v>
+        <v>-0.06309619838943192</v>
       </c>
       <c r="D78">
-        <v>-8.922938255261258</v>
+        <v>-8.750803353825617</v>
       </c>
       <c r="E78">
-        <v>8.476380677045661</v>
+        <v>8.624610957046752</v>
       </c>
       <c r="F78">
-        <v>-2.215599189720852</v>
+        <v>2.173998663640564</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="B79">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.1605207315356817</v>
+        <v>0.05850779895896319</v>
       </c>
       <c r="D79">
-        <v>-8.858869172330287</v>
+        <v>-8.627982243652539</v>
       </c>
       <c r="E79">
-        <v>8.537827709258924</v>
+        <v>8.744997841570466</v>
       </c>
       <c r="F79">
-        <v>-1.023550389402672</v>
+        <v>9.04106109631666</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="B80">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C80">
-        <v>-0.09419824591489545</v>
+        <v>0.3579438019306944</v>
       </c>
       <c r="D80">
-        <v>-8.790968035614018</v>
+        <v>-8.333616569705935</v>
       </c>
       <c r="E80">
-        <v>8.602571543784226</v>
+        <v>9.049504173567325</v>
       </c>
       <c r="F80">
-        <v>2.839947452169778</v>
+        <v>-9.04106109631666</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="B81">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.07331993757895039</v>
+        <v>-0.2027651330863773</v>
       </c>
       <c r="D81">
-        <v>-8.622526690212696</v>
+        <v>-8.900014706644559</v>
       </c>
       <c r="E81">
-        <v>8.769166565370599</v>
+        <v>8.494484440471805</v>
       </c>
       <c r="F81">
-        <v>-4.709160753384989</v>
+        <v>5.236798551731603</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="B82">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="C82">
-        <v>-0.14863731915288</v>
+        <v>0.1130382746316829</v>
       </c>
       <c r="D82">
-        <v>-8.844749252729351</v>
+        <v>-8.585029288925384</v>
       </c>
       <c r="E82">
-        <v>8.547474614423592</v>
+        <v>8.811105838188748</v>
       </c>
       <c r="F82">
-        <v>-3.629000140520056</v>
+        <v>-5.236798551731603</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="B83">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.1872409592658515</v>
+        <v>-0.1410104917110011</v>
       </c>
       <c r="D83">
-        <v>-8.882722213590165</v>
+        <v>-8.839817653790119</v>
       </c>
       <c r="E83">
-        <v>8.508240295058462</v>
+        <v>8.557796670368118</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>-1.081091610421492</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="B84">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.06542168148693785</v>
+        <v>-0.08957199231020807</v>
       </c>
       <c r="D84">
-        <v>-8.759268129067664</v>
+        <v>-8.786820102865658</v>
       </c>
       <c r="E84">
-        <v>8.628424766093787</v>
+        <v>8.607676118245241</v>
       </c>
       <c r="F84">
-        <v>0.2171553513507618</v>
+        <v>0.6500564603093117</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="B85">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="C85">
-        <v>-0.01475147022195632</v>
+        <v>-0.0101957824178347</v>
       </c>
       <c r="D85">
-        <v>-8.706967740218499</v>
+        <v>-8.705857899255145</v>
       </c>
       <c r="E85">
-        <v>8.677464799774587</v>
+        <v>8.685466334419475</v>
       </c>
       <c r="F85">
-        <v>-0.2171553513507618</v>
+        <v>-1.304366319202899</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="B86">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.01323058837774153</v>
+        <v>-0.04919609662419538</v>
       </c>
       <c r="D86">
-        <v>-8.703814403237731</v>
+        <v>-8.743366626653097</v>
       </c>
       <c r="E86">
-        <v>8.677353226482248</v>
+        <v>8.644974433404707</v>
       </c>
       <c r="F86">
-        <v>0.8658062743114314</v>
+        <v>-1.543580812983958</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="B87">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="C87">
-        <v>0.02755856321647548</v>
+        <v>-0.07190074661761581</v>
       </c>
       <c r="D87">
-        <v>-8.661454543232763</v>
+        <v>-8.764626756386939</v>
       </c>
       <c r="E87">
-        <v>8.716571669665713</v>
+        <v>8.620825263151708</v>
       </c>
       <c r="F87">
-        <v>-1.958713327530504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="B88">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.06309619838943192</v>
+        <v>-0.02646138268981286</v>
       </c>
       <c r="D88">
-        <v>-8.750803353825617</v>
+        <v>-8.717559206338464</v>
       </c>
       <c r="E88">
-        <v>8.624610957046752</v>
+        <v>8.664636440958837</v>
       </c>
       <c r="F88">
-        <v>2.173998663640564</v>
+        <v>0.2219756738313095</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="B89">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="C89">
-        <v>0.05850779895896319</v>
+        <v>-0.001999027742103629</v>
       </c>
       <c r="D89">
-        <v>-8.627982243652539</v>
+        <v>-8.69147425233218</v>
       </c>
       <c r="E89">
-        <v>8.744997841570466</v>
+        <v>8.687476196847973</v>
       </c>
       <c r="F89">
-        <v>9.04106109631666</v>
+        <v>2.409755157906002</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="B90">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C90">
-        <v>0.3579438019306944</v>
+        <v>0.0832586908643701</v>
       </c>
       <c r="D90">
-        <v>-8.333616569705935</v>
+        <v>-8.605071119461631</v>
       </c>
       <c r="E90">
-        <v>9.049504173567325</v>
+        <v>8.771588501190372</v>
       </c>
       <c r="F90">
-        <v>-9.04106109631666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="B91">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="C91">
-        <v>-0.2027651330863773</v>
+        <v>0.03056320647338507</v>
       </c>
       <c r="D91">
-        <v>-8.900014706644559</v>
+        <v>-8.656141217361</v>
       </c>
       <c r="E91">
-        <v>8.494484440471805</v>
+        <v>8.71726763030777</v>
       </c>
       <c r="F91">
-        <v>5.236798551731603</v>
+        <v>4.65200156348935</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="B92">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="C92">
-        <v>0.1130382746316829</v>
+        <v>0.1735950080774082</v>
       </c>
       <c r="D92">
-        <v>-8.585029288925384</v>
+        <v>-8.513251345453732</v>
       </c>
       <c r="E92">
-        <v>8.811105838188748</v>
+        <v>8.860441361608547</v>
       </c>
       <c r="F92">
-        <v>-5.236798551731603</v>
+        <v>4.839654086184986</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="B93">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.1410104917110011</v>
+        <v>0.2352164834428643</v>
       </c>
       <c r="D93">
-        <v>-8.839817653790119</v>
+        <v>-8.451805107383645</v>
       </c>
       <c r="E93">
-        <v>8.557796670368118</v>
+        <v>8.922238074269373</v>
       </c>
       <c r="F93">
-        <v>-1.081091610421492</v>
+        <v>-5.878085016756707</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="B94">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.08957199231020807</v>
+        <v>-0.1193250123529959</v>
       </c>
       <c r="D94">
-        <v>-8.786820102865658</v>
+        <v>-8.80780949173386</v>
       </c>
       <c r="E94">
-        <v>8.607676118245241</v>
+        <v>8.569159467027866</v>
       </c>
       <c r="F94">
-        <v>0.6500564603093117</v>
+        <v>12.72486494450273</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="B95">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="C95">
-        <v>-0.0101957824178347</v>
+        <v>0.3852813796853676</v>
       </c>
       <c r="D95">
-        <v>-8.705857899255145</v>
+        <v>-8.315191748799094</v>
       </c>
       <c r="E95">
-        <v>8.685466334419475</v>
+        <v>9.085754508169828</v>
       </c>
       <c r="F95">
-        <v>-1.304366319202899</v>
+        <v>1.278556229697259</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="B96">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="C96">
-        <v>-0.04919609662419538</v>
+        <v>0.1926688185889803</v>
       </c>
       <c r="D96">
-        <v>-8.743366626653097</v>
+        <v>-8.506244683430168</v>
       </c>
       <c r="E96">
-        <v>8.644974433404707</v>
+        <v>8.89158232060813</v>
       </c>
       <c r="F96">
-        <v>-1.543580812983958</v>
+        <v>-6.951154369774937</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="B97">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.07190074661761581</v>
+        <v>-0.1613710666607342</v>
       </c>
       <c r="D97">
-        <v>-8.764626756386939</v>
+        <v>-8.862863590234218</v>
       </c>
       <c r="E97">
-        <v>8.620825263151708</v>
+        <v>8.540121456912749</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>4.00434814408408</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="B98">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="C98">
-        <v>-0.02646138268981286</v>
+        <v>0.07142142183732147</v>
       </c>
       <c r="D98">
-        <v>-8.717559206338464</v>
+        <v>-8.629876006205659</v>
       </c>
       <c r="E98">
-        <v>8.664636440958837</v>
+        <v>8.772718849880302</v>
       </c>
       <c r="F98">
-        <v>0.2219756738313095</v>
+        <v>4.923510299768452</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="B99">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="C99">
-        <v>-0.001999027742103629</v>
+        <v>0.1903427805839109</v>
       </c>
       <c r="D99">
-        <v>-8.69147425233218</v>
+        <v>-8.511270156663821</v>
       </c>
       <c r="E99">
-        <v>8.687476196847973</v>
+        <v>8.891955717831644</v>
       </c>
       <c r="F99">
-        <v>2.409755157906002</v>
+        <v>-2.888287414878565</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="B100">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C100">
-        <v>0.0832586908643701</v>
+        <v>-0.02235582477901921</v>
       </c>
       <c r="D100">
-        <v>-8.605071119461631</v>
+        <v>-8.723125883637911</v>
       </c>
       <c r="E100">
-        <v>8.771588501190372</v>
+        <v>8.678414234079872</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1.454571100237878</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="B101">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.03056320647338507</v>
+        <v>0.03914656150516937</v>
       </c>
       <c r="D101">
-        <v>-8.656141217361</v>
+        <v>-8.660180943489804</v>
       </c>
       <c r="E101">
-        <v>8.71726763030777</v>
+        <v>8.738474066500144</v>
       </c>
       <c r="F101">
-        <v>4.65200156348935</v>
+        <v>5.615510282972824</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="B102">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.1735950080774082</v>
+        <v>0.1993898233322442</v>
       </c>
       <c r="D102">
-        <v>-8.513251345453732</v>
+        <v>-8.500875426157947</v>
       </c>
       <c r="E102">
-        <v>8.860441361608547</v>
+        <v>8.899655072822434</v>
       </c>
       <c r="F102">
-        <v>4.839654086184986</v>
+        <v>4.992717395650725</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="B103">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.2352164834428643</v>
+        <v>0.2439917408517775</v>
       </c>
       <c r="D103">
-        <v>-8.451805107383645</v>
+        <v>-8.456541369576398</v>
       </c>
       <c r="E103">
-        <v>8.922238074269373</v>
+        <v>8.944524851279953</v>
       </c>
       <c r="F103">
-        <v>-5.878085016756707</v>
+        <v>0.4858309151076767</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="B104">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.1193250123529959</v>
+        <v>0.1100010217412492</v>
       </c>
       <c r="D104">
-        <v>-8.80780949173386</v>
+        <v>-8.588916488106028</v>
       </c>
       <c r="E104">
-        <v>8.569159467027866</v>
+        <v>8.808918531588526</v>
       </c>
       <c r="F104">
-        <v>12.72486494450273</v>
+        <v>-2.453107474978111</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="B105">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.3852813796853676</v>
+        <v>-0.03994846451423406</v>
       </c>
       <c r="D105">
-        <v>-8.315191748799094</v>
+        <v>-8.737786323621616</v>
       </c>
       <c r="E105">
-        <v>9.085754508169828</v>
+        <v>8.657889394593148</v>
       </c>
       <c r="F105">
-        <v>1.278556229697259</v>
+        <v>-18.09979298634463</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="B106">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.1926688185889803</v>
+        <v>-0.6305472626726099</v>
       </c>
       <c r="D106">
-        <v>-8.506244683430168</v>
+        <v>-9.353525413420705</v>
       </c>
       <c r="E106">
-        <v>8.89158232060813</v>
+        <v>8.092430888075484</v>
       </c>
       <c r="F106">
-        <v>-6.951154369774937</v>
+        <v>0.1982161203991417</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="B107">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.1613710666607342</v>
+        <v>-0.2188598773832987</v>
       </c>
       <c r="D107">
-        <v>-8.862863590234218</v>
+        <v>-8.940271472743806</v>
       </c>
       <c r="E107">
-        <v>8.540121456912749</v>
+        <v>8.502551717977209</v>
       </c>
       <c r="F107">
-        <v>4.00434814408408</v>
+        <v>4.264211926600225</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="B108">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="C108">
-        <v>0.07142142183732147</v>
+        <v>0.07009663901560659</v>
       </c>
       <c r="D108">
-        <v>-8.629876006205659</v>
+        <v>-8.651335154002197</v>
       </c>
       <c r="E108">
-        <v>8.772718849880302</v>
+        <v>8.79152843203341</v>
       </c>
       <c r="F108">
-        <v>4.923510299768452</v>
+        <v>-1.722530628187968</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="B109">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="C109">
-        <v>0.1903427805839109</v>
+        <v>-0.03352294034620995</v>
       </c>
       <c r="D109">
-        <v>-8.511270156663821</v>
+        <v>-8.753596605706102</v>
       </c>
       <c r="E109">
-        <v>8.891955717831644</v>
+        <v>8.686550725013683</v>
       </c>
       <c r="F109">
-        <v>-2.888287414878565</v>
+        <v>-4.541747969079246</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="B110">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.02235582477901921</v>
+        <v>-0.163541353495779</v>
       </c>
       <c r="D110">
-        <v>-8.723125883637911</v>
+        <v>-8.883658470603182</v>
       </c>
       <c r="E110">
-        <v>8.678414234079872</v>
+        <v>8.556575763611624</v>
       </c>
       <c r="F110">
-        <v>1.454571100237878</v>
+        <v>0.8048333182828493</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="B111">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.03914656150516937</v>
+        <v>-0.03097786896052218</v>
       </c>
       <c r="D111">
-        <v>-8.660180943489804</v>
+        <v>-8.749551928932991</v>
       </c>
       <c r="E111">
-        <v>8.738474066500144</v>
+        <v>8.687596191011949</v>
       </c>
       <c r="F111">
-        <v>5.615510282972824</v>
+        <v>-4.508960486317726</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="B112">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="C112">
-        <v>0.1993898233322442</v>
+        <v>-0.1615614160214609</v>
       </c>
       <c r="D112">
-        <v>-8.500875426157947</v>
+        <v>-8.880157110825907</v>
       </c>
       <c r="E112">
-        <v>8.899655072822434</v>
+        <v>8.557034278782984</v>
       </c>
       <c r="F112">
-        <v>4.992717395650725</v>
+        <v>-3.195159980660289</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="B113">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="C113">
-        <v>0.2439917408517775</v>
+        <v>-0.1655182185416548</v>
       </c>
       <c r="D113">
-        <v>-8.456541369576398</v>
+        <v>-8.883248153460269</v>
       </c>
       <c r="E113">
-        <v>8.944524851279953</v>
+        <v>8.552211716376959</v>
       </c>
       <c r="F113">
-        <v>0.4858309151076767</v>
+        <v>0.2162163004495454</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="B114">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.1100010217412492</v>
+        <v>-0.05159666436544705</v>
       </c>
       <c r="D114">
-        <v>-8.588916488106028</v>
+        <v>-8.767720858524992</v>
       </c>
       <c r="E114">
-        <v>8.808918531588526</v>
+        <v>8.6645275297941</v>
       </c>
       <c r="F114">
-        <v>-2.453107474978111</v>
+        <v>-0.6500564603093117</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="B115">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.03994846451423406</v>
+        <v>-0.04058373373137536</v>
       </c>
       <c r="D115">
-        <v>-8.737786323621616</v>
+        <v>-8.755120663228242</v>
       </c>
       <c r="E115">
-        <v>8.657889394593148</v>
+        <v>8.67395319576549</v>
       </c>
       <c r="F115">
-        <v>-18.09979298634463</v>
+        <v>0.2171553513507618</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="B116">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="C116">
-        <v>-0.6305472626726099</v>
+        <v>-0.007310405475077816</v>
       </c>
       <c r="D116">
-        <v>-9.353525413420705</v>
+        <v>-8.720237003056379</v>
       </c>
       <c r="E116">
-        <v>8.092430888075484</v>
+        <v>8.705616192106223</v>
       </c>
       <c r="F116">
-        <v>0.1982161203991417</v>
+        <v>5.486608008594107</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="B117">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.2188598773832987</v>
+        <v>0.1813462137964681</v>
       </c>
       <c r="D117">
-        <v>-8.940271472743806</v>
+        <v>-8.532431593554373</v>
       </c>
       <c r="E117">
-        <v>8.502551717977209</v>
+        <v>8.895124021147309</v>
       </c>
       <c r="F117">
-        <v>4.264211926600225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="B118">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.07009663901560659</v>
+        <v>0.06470639715298833</v>
       </c>
       <c r="D118">
-        <v>-8.651335154002197</v>
+        <v>-8.64745970670489</v>
       </c>
       <c r="E118">
-        <v>8.79152843203341</v>
+        <v>8.776872501010867</v>
       </c>
       <c r="F118">
-        <v>-1.722530628187968</v>
+        <v>-3.553142837848533</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="B119">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.03352294034620995</v>
+        <v>-0.09656681655665578</v>
       </c>
       <c r="D119">
-        <v>-8.753596605706102</v>
+        <v>-8.808187795748569</v>
       </c>
       <c r="E119">
-        <v>8.686550725013683</v>
+        <v>8.615054162635257</v>
       </c>
       <c r="F119">
-        <v>-4.541747969079246</v>
+        <v>-3.905051487187272</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="B120">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.163541353495779</v>
+        <v>-0.1654084711814836</v>
       </c>
       <c r="D120">
-        <v>-8.883658470603182</v>
+        <v>-8.876600415894108</v>
       </c>
       <c r="E120">
-        <v>8.556575763611624</v>
+        <v>8.54578347353114</v>
       </c>
       <c r="F120">
-        <v>0.8048333182828493</v>
+        <v>-3.374898473664167</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="B121">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.03097786896052218</v>
+        <v>-0.1727795242183208</v>
       </c>
       <c r="D121">
-        <v>-8.749551928932991</v>
+        <v>-8.883199710642044</v>
       </c>
       <c r="E121">
-        <v>8.687596191011949</v>
+        <v>8.537640662205403</v>
       </c>
       <c r="F121">
-        <v>-4.508960486317726</v>
+        <v>-2.784402617117276</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="B122">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.1615614160214609</v>
+        <v>-0.1553530023777042</v>
       </c>
       <c r="D122">
-        <v>-8.880157110825907</v>
+        <v>-8.864718088864983</v>
       </c>
       <c r="E122">
-        <v>8.557034278782984</v>
+        <v>8.554012084109573</v>
       </c>
       <c r="F122">
-        <v>-3.195159980660289</v>
+        <v>-1.660773639966084</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="B123">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.1655182185416548</v>
+        <v>-0.1119565161032927</v>
       </c>
       <c r="D123">
-        <v>-8.883248153460269</v>
+        <v>-8.819895728622436</v>
       </c>
       <c r="E123">
-        <v>8.552211716376959</v>
+        <v>8.595982696415851</v>
       </c>
       <c r="F123">
-        <v>0.2162163004495454</v>
+        <v>0.2389487397381096</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="B124">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.05159666436544705</v>
+        <v>-0.03131240520370446</v>
       </c>
       <c r="D124">
-        <v>-8.767720858524992</v>
+        <v>-8.737651938645488</v>
       </c>
       <c r="E124">
-        <v>8.6645275297941</v>
+        <v>8.675027128238078</v>
       </c>
       <c r="F124">
-        <v>-0.6500564603093117</v>
+        <v>-2.171376022378357</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="B125">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.04058373373137536</v>
+        <v>-0.08548618477831627</v>
       </c>
       <c r="D125">
-        <v>-8.755120663228242</v>
+        <v>-8.790590413515824</v>
       </c>
       <c r="E125">
-        <v>8.67395319576549</v>
+        <v>8.619618043959191</v>
       </c>
       <c r="F125">
-        <v>0.2171553513507618</v>
+        <v>4.296603588344272</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="B126">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="C126">
-        <v>-0.007310405475077816</v>
+        <v>0.1163203730319005</v>
       </c>
       <c r="D126">
-        <v>-8.720237003056379</v>
+        <v>-8.588740882833862</v>
       </c>
       <c r="E126">
-        <v>8.705616192106223</v>
+        <v>8.821381628897663</v>
       </c>
       <c r="F126">
-        <v>5.486608008594107</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>2699</v>
-      </c>
-      <c r="B127">
-        <v>2698</v>
-      </c>
-      <c r="C127">
-        <v>0.1813462137964681</v>
-      </c>
-      <c r="D127">
-        <v>-8.532431593554373</v>
-      </c>
-      <c r="E127">
-        <v>8.895124021147309</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B128">
-        <v>2699</v>
-      </c>
-      <c r="C128">
-        <v>0.06470639715298833</v>
-      </c>
-      <c r="D128">
-        <v>-8.64745970670489</v>
-      </c>
-      <c r="E128">
-        <v>8.776872501010867</v>
-      </c>
-      <c r="F128">
-        <v>-3.553142837848533</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>2701</v>
-      </c>
-      <c r="B129">
-        <v>2700</v>
-      </c>
-      <c r="C129">
-        <v>-0.09656681655665578</v>
-      </c>
-      <c r="D129">
-        <v>-8.808187795748569</v>
-      </c>
-      <c r="E129">
-        <v>8.615054162635257</v>
-      </c>
-      <c r="F129">
-        <v>-3.905051487187272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>2702</v>
-      </c>
-      <c r="B130">
-        <v>2701</v>
-      </c>
-      <c r="C130">
-        <v>-0.1654084711814836</v>
-      </c>
-      <c r="D130">
-        <v>-8.876600415894108</v>
-      </c>
-      <c r="E130">
-        <v>8.54578347353114</v>
-      </c>
-      <c r="F130">
-        <v>-3.374898473664167</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>2703</v>
-      </c>
-      <c r="B131">
-        <v>2702</v>
-      </c>
-      <c r="C131">
-        <v>-0.1727795242183208</v>
-      </c>
-      <c r="D131">
-        <v>-8.883199710642044</v>
-      </c>
-      <c r="E131">
-        <v>8.537640662205403</v>
-      </c>
-      <c r="F131">
-        <v>-2.784402617117276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2704</v>
-      </c>
-      <c r="B132">
-        <v>2703</v>
-      </c>
-      <c r="C132">
-        <v>-0.1553530023777042</v>
-      </c>
-      <c r="D132">
-        <v>-8.864718088864983</v>
-      </c>
-      <c r="E132">
-        <v>8.554012084109573</v>
-      </c>
-      <c r="F132">
-        <v>-1.660773639966084</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>2705</v>
-      </c>
-      <c r="B133">
-        <v>2704</v>
-      </c>
-      <c r="C133">
-        <v>-0.1119565161032927</v>
-      </c>
-      <c r="D133">
-        <v>-8.819895728622436</v>
-      </c>
-      <c r="E133">
-        <v>8.595982696415851</v>
-      </c>
-      <c r="F133">
-        <v>0.2389487397381096</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>2706</v>
-      </c>
-      <c r="B134">
-        <v>2705</v>
-      </c>
-      <c r="C134">
-        <v>-0.03131240520370446</v>
-      </c>
-      <c r="D134">
-        <v>-8.737651938645488</v>
-      </c>
-      <c r="E134">
-        <v>8.675027128238078</v>
-      </c>
-      <c r="F134">
-        <v>-2.171376022378357</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>2707</v>
-      </c>
-      <c r="B135">
-        <v>2706</v>
-      </c>
-      <c r="C135">
-        <v>-0.08548618477831627</v>
-      </c>
-      <c r="D135">
-        <v>-8.790590413515824</v>
-      </c>
-      <c r="E135">
-        <v>8.619618043959191</v>
-      </c>
-      <c r="F135">
-        <v>4.296603588344272</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>2708</v>
-      </c>
-      <c r="B136">
-        <v>2707</v>
-      </c>
-      <c r="C136">
-        <v>0.1163203730319005</v>
-      </c>
-      <c r="D136">
-        <v>-8.588740882833862</v>
-      </c>
-      <c r="E136">
-        <v>8.821381628897663</v>
-      </c>
-      <c r="F136">
         <v>1.392133851860855</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/Nippon_tel.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>0.07487453243809841</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-8.512436274938405</v>
+        <v>-8.594387540293329</v>
       </c>
       <c r="E2">
-        <v>8.662185339814602</v>
+        <v>8.594387540293329</v>
       </c>
       <c r="F2">
         <v>1.515180502060254</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>6.142521579799443E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.58576715762983</v>
+        <v>-8.592922980164406</v>
       </c>
       <c r="E3">
-        <v>8.585890008061424</v>
+        <v>8.592922980164406</v>
       </c>
       <c r="F3">
         <v>-1.134227660393439</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.03631475089364777</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-8.620593790108401</v>
+        <v>-8.591372011283033</v>
       </c>
       <c r="E4">
-        <v>8.547964288321104</v>
+        <v>8.591372011283033</v>
       </c>
       <c r="F4">
         <v>-0.3809528416668151</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>0.0113013168792957</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-8.571328072279128</v>
+        <v>-8.589723268417391</v>
       </c>
       <c r="E5">
-        <v>8.593930706037719</v>
+        <v>8.589723268417391</v>
       </c>
       <c r="F5">
         <v>1.890415463915307</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.0533192860340761</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-8.527956685086123</v>
+        <v>-8.588371893649846</v>
       </c>
       <c r="E6">
-        <v>8.634595257154276</v>
+        <v>8.588371893649846</v>
       </c>
       <c r="F6">
         <v>-0.3752349618550532</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.04649368858312156</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-8.626127495578782</v>
+        <v>-8.586724635380548</v>
       </c>
       <c r="E7">
-        <v>8.53314011841254</v>
+        <v>8.586724635380548</v>
       </c>
       <c r="F7">
         <v>-1.897590145900541</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.06308957744575432</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-8.643575074759378</v>
+        <v>-8.585377340175539</v>
       </c>
       <c r="E8">
-        <v>8.517395919867868</v>
+        <v>8.585377340175539</v>
       </c>
       <c r="F8">
         <v>1.142869582362227</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.04260203354235841</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-8.536351951220729</v>
+        <v>-8.583832620314121</v>
       </c>
       <c r="E9">
-        <v>8.621556018305446</v>
+        <v>8.583832620314121</v>
       </c>
       <c r="F9">
         <v>0.7547205635383136</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.02270731839923479</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-8.554633278991282</v>
+        <v>-8.582225192117395</v>
       </c>
       <c r="E10">
-        <v>8.600047915789752</v>
+        <v>8.582225192117395</v>
       </c>
       <c r="F10">
         <v>-0.7547205635383136</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.02699999432125525</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-8.602736991618306</v>
+        <v>-8.580618703445202</v>
       </c>
       <c r="E11">
-        <v>8.548737002975797</v>
+        <v>8.580618703445202</v>
       </c>
       <c r="F11">
         <v>-0.7604599385219402</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.02388777163551051</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-8.598016829867678</v>
+        <v>-8.579013904270928</v>
       </c>
       <c r="E12">
-        <v>8.550241286596655</v>
+        <v>8.579013904270928</v>
       </c>
       <c r="F12">
         <v>0.3809528416668151</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.01448307871293404</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-8.558006911369416</v>
+        <v>-8.577372646988028</v>
       </c>
       <c r="E13">
-        <v>8.586973068795283</v>
+        <v>8.577372646988028</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.0009765246060626385</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-8.571814654150637</v>
+        <v>-8.575719814783264</v>
       </c>
       <c r="E14">
-        <v>8.569861604938511</v>
+        <v>8.575719814783264</v>
       </c>
       <c r="F14">
         <v>-0.763362485507102</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.0257302968033205</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-8.594967314413502</v>
+        <v>-8.574118224136864</v>
       </c>
       <c r="E15">
-        <v>8.54350672080686</v>
+        <v>8.574118224136864</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.00174408567409461</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-8.56584299578503</v>
+        <v>-8.572467291566609</v>
       </c>
       <c r="E16">
-        <v>8.569331167133218</v>
+        <v>8.572467291566609</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.0001182165372974376</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-8.566056259686457</v>
+        <v>-8.570817312282427</v>
       </c>
       <c r="E17">
-        <v>8.565819826611863</v>
+        <v>8.570817312282427</v>
       </c>
       <c r="F17">
         <v>-0.3838776307166114</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.01296454285259037</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-8.577267200555324</v>
+        <v>-8.569180994692239</v>
       </c>
       <c r="E18">
-        <v>8.551338114850145</v>
+        <v>8.569180994692239</v>
       </c>
       <c r="F18">
         <v>1.147240116223713</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.03963774233215984</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-8.523133898096155</v>
+        <v>-8.567646407098085</v>
       </c>
       <c r="E19">
-        <v>8.602409382760474</v>
+        <v>8.567646407098085</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.002686559913934323</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-8.563812140937857</v>
+        <v>-8.565999257912988</v>
       </c>
       <c r="E20">
-        <v>8.558439021109988</v>
+        <v>8.565999257912988</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.0001820798618107268</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-8.559298241804395</v>
+        <v>-8.564353058367104</v>
       </c>
       <c r="E21">
-        <v>8.559662401528016</v>
+        <v>8.564353058367104</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>-1.234079027273399E-05</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-8.557848347909621</v>
+        <v>-8.56270780754828</v>
       </c>
       <c r="E22">
-        <v>8.557823666329076</v>
+        <v>8.56270780754828</v>
       </c>
       <c r="F22">
         <v>1.134227660393439</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.03831905914460405</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-8.517984490013966</v>
+        <v>-8.561174348268883</v>
       </c>
       <c r="E23">
-        <v>8.594622608303172</v>
+        <v>8.561174348268883</v>
       </c>
       <c r="F23">
         <v>-0.7547205635383136</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.02807996713750395</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-8.582795253401834</v>
+        <v>-8.55958003858094</v>
       </c>
       <c r="E24">
-        <v>8.526635319126825</v>
+        <v>8.55958003858094</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.001902509062665934</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-8.551171374833636</v>
+        <v>-8.557937597802395</v>
       </c>
       <c r="E25">
-        <v>8.554976392958967</v>
+        <v>8.557937597802395</v>
       </c>
       <c r="F25">
         <v>1.503787736454054</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.05065600362924565</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-8.500970237338336</v>
+        <v>-8.556490827909499</v>
       </c>
       <c r="E26">
-        <v>8.602282244596829</v>
+        <v>8.556490827909499</v>
       </c>
       <c r="F26">
         <v>5.445991713238119</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.1813078015180749</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-8.371186184699958</v>
+        <v>-8.557403241976957</v>
       </c>
       <c r="E27">
-        <v>8.733801787736109</v>
+        <v>8.557403241976957</v>
       </c>
       <c r="F27">
         <v>3.130690462504404</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.09554598113045612</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-8.456062857228765</v>
+        <v>-8.556606457805607</v>
       </c>
       <c r="E28">
-        <v>8.647154819489678</v>
+        <v>8.556606457805607</v>
       </c>
       <c r="F28">
         <v>2.368977112240511</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>0.0775538068723407</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-8.470712518771791</v>
+        <v>-8.55544986578483</v>
       </c>
       <c r="E29">
-        <v>8.625820132516473</v>
+        <v>8.55544986578483</v>
       </c>
       <c r="F29">
         <v>23.70926316917394</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>0.8462082662456778</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-7.750231963201787</v>
+        <v>-8.602020525888452</v>
       </c>
       <c r="E30">
-        <v>9.442648495693142</v>
+        <v>8.602020525888452</v>
       </c>
       <c r="F30">
         <v>6.635086202411244</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>0.5330005517104635</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-8.064628381571939</v>
+        <v>-8.60413721482025</v>
       </c>
       <c r="E31">
-        <v>9.130629484992866</v>
+        <v>8.60413721482025</v>
       </c>
       <c r="F31">
         <v>18.02618238309446</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.9762678747298903</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-7.645652330720257</v>
+        <v>-8.630212793156685</v>
       </c>
       <c r="E32">
-        <v>9.598188080180037</v>
+        <v>8.630212793156685</v>
       </c>
       <c r="F32">
         <v>-9.510401549063729</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>-0.02738379865578278</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-8.656920039351451</v>
+        <v>-8.636261006339897</v>
       </c>
       <c r="E33">
-        <v>8.602152442039888</v>
+        <v>8.636261006339897</v>
       </c>
       <c r="F33">
         <v>-10.25928701624084</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.4176705240334879</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-9.054391154440982</v>
+        <v>-8.64355860937817</v>
       </c>
       <c r="E34">
-        <v>8.219050106374006</v>
+        <v>8.64355860937817</v>
       </c>
       <c r="F34">
         <v>-1.774444529907182</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>-0.1911009846256848</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-8.826326438183564</v>
+        <v>-8.642173913142733</v>
       </c>
       <c r="E35">
-        <v>8.444124468932195</v>
+        <v>8.642173913142733</v>
       </c>
       <c r="F35">
         <v>-2.853630726493428</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>-0.1664322878886916</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-8.800610219654789</v>
+        <v>-8.64121429299613</v>
       </c>
       <c r="E36">
-        <v>8.467745643877407</v>
+        <v>8.64121429299613</v>
       </c>
       <c r="F36">
         <v>-6.243547094079283</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>-0.2920024019968401</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-8.927667942559758</v>
+        <v>-8.642873577747164</v>
       </c>
       <c r="E37">
-        <v>8.343663138566079</v>
+        <v>8.642873577747164</v>
       </c>
       <c r="F37">
         <v>-1.694955831377332</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>-0.1561075042214536</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-8.790291319804579</v>
+        <v>-8.641467214221569</v>
       </c>
       <c r="E38">
-        <v>8.47807631136167</v>
+        <v>8.641467214221569</v>
       </c>
       <c r="F38">
         <v>1.414450738616502</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.007016051554320224</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-8.625728918592865</v>
+        <v>-8.63998768666924</v>
       </c>
       <c r="E39">
-        <v>8.639761021701505</v>
+        <v>8.63998768666924</v>
       </c>
       <c r="F39">
         <v>7.571182173569646</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>0.2957959982203624</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-8.340155588665862</v>
+        <v>-8.643201027268427</v>
       </c>
       <c r="E40">
-        <v>8.931747585106585</v>
+        <v>8.643201027268427</v>
       </c>
       <c r="F40">
         <v>-8.985632912186148</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.2483312898488257</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-8.889933745501468</v>
+        <v>-8.648394663365778</v>
       </c>
       <c r="E41">
-        <v>8.393271165803815</v>
+        <v>8.648394663365778</v>
       </c>
       <c r="F41">
         <v>0.85106896679088</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>-0.04413441510470156</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-8.684191936292136</v>
+        <v>-8.646807279056311</v>
       </c>
       <c r="E42">
-        <v>8.595923106082731</v>
+        <v>8.646807279056311</v>
       </c>
       <c r="F42">
         <v>-3.448617607116944</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.1419325172806489</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-8.781325744699247</v>
+        <v>-8.64616643854724</v>
       </c>
       <c r="E43">
-        <v>8.497460710137949</v>
+        <v>8.64616643854724</v>
       </c>
       <c r="F43">
         <v>-3.571808260207909</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>-0.1778832202799023</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-8.816626999135483</v>
+        <v>-8.645599237116235</v>
       </c>
       <c r="E44">
-        <v>8.460860558575678</v>
+        <v>8.645599237116235</v>
       </c>
       <c r="F44">
         <v>-4.652001563489261</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.2317116271713155</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-8.870504929797171</v>
+        <v>-8.645784012657062</v>
       </c>
       <c r="E45">
-        <v>8.407081675454538</v>
+        <v>8.645784012657062</v>
       </c>
       <c r="F45">
         <v>4.652001563489261</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.1025409190708781</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-8.536624996202244</v>
+        <v>-8.645968643579321</v>
       </c>
       <c r="E46">
-        <v>8.741706834343999</v>
+        <v>8.645968643579321</v>
       </c>
       <c r="F46">
         <v>-5.288946392037275</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>-0.1631790719125095</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-8.803159389900383</v>
+        <v>-8.646688371870471</v>
       </c>
       <c r="E47">
-        <v>8.476801246075365</v>
+        <v>8.646688371870471</v>
       </c>
       <c r="F47">
         <v>5.288946392037275</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>0.1402434307886111</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-8.500606618368513</v>
+        <v>-8.647407492796518</v>
       </c>
       <c r="E48">
-        <v>8.781093479945737</v>
+        <v>8.647407492796518</v>
       </c>
       <c r="F48">
         <v>-1.834913866819665</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.02111661280165833</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-8.660653595485464</v>
+        <v>-8.646047754255157</v>
       </c>
       <c r="E49">
-        <v>8.618420369882148</v>
+        <v>8.646047754255157</v>
       </c>
       <c r="F49">
         <v>9.137427368308693</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>0.3206302870527811</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-8.324357491426374</v>
+        <v>-8.651452993514567</v>
       </c>
       <c r="E50">
-        <v>8.965618065531936</v>
+        <v>8.651452993514567</v>
       </c>
       <c r="F50">
         <v>2.777956410707549</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.2109041237780043</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-8.432945653583026</v>
+        <v>-8.650460389102324</v>
       </c>
       <c r="E51">
-        <v>8.854753901139034</v>
+        <v>8.650460389102324</v>
       </c>
       <c r="F51">
         <v>2.702867238791917</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>0.1683555612266274</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-8.474374990389558</v>
+        <v>-8.649433713980883</v>
       </c>
       <c r="E52">
-        <v>8.811086112842814</v>
+        <v>8.649433713980883</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.05559571070697503</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-8.585496462396847</v>
+        <v>-8.647791676241553</v>
       </c>
       <c r="E53">
-        <v>8.696687883810796</v>
+        <v>8.647791676241553</v>
       </c>
       <c r="F53">
         <v>4.178153401495521</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.172431204682818</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-8.468454716888278</v>
+        <v>-8.647622243672917</v>
       </c>
       <c r="E54">
-        <v>8.813317126253914</v>
+        <v>8.647622243672917</v>
       </c>
       <c r="F54">
         <v>3.764559961636671</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.1977456419681316</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-8.44258906000392</v>
+        <v>-8.647176115988769</v>
       </c>
       <c r="E55">
-        <v>8.838080343940183</v>
+        <v>8.647176115988769</v>
       </c>
       <c r="F55">
         <v>1.224005489450164</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.1122989635920391</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-8.526486101821936</v>
+        <v>-8.645662599096987</v>
       </c>
       <c r="E56">
-        <v>8.751084029006014</v>
+        <v>8.645662599096987</v>
       </c>
       <c r="F56">
         <v>6.133998059935575</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.2677392288547793</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-8.372463789200765</v>
+        <v>-8.647192597229047</v>
       </c>
       <c r="E57">
-        <v>8.907942246910324</v>
+        <v>8.647192597229047</v>
       </c>
       <c r="F57">
         <v>4.475019579861517</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.2626801734618338</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-8.377375750671931</v>
+        <v>-8.647239862216905</v>
       </c>
       <c r="E58">
-        <v>8.902736097595596</v>
+        <v>8.647239862216905</v>
       </c>
       <c r="F58">
         <v>2.804930380989923</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>0.1989633811920328</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-8.439999910185477</v>
+        <v>-8.646264052364607</v>
       </c>
       <c r="E59">
-        <v>8.837926672569544</v>
+        <v>8.646264052364607</v>
       </c>
       <c r="F59">
         <v>15.71855835224119</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.6905414215203463</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-7.96702733600135</v>
+        <v>-8.665389087292272</v>
       </c>
       <c r="E60">
-        <v>9.348110179042042</v>
+        <v>8.665389087292272</v>
       </c>
       <c r="F60">
         <v>16.70540846631665</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>1.013181973430176</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-7.664154361520068</v>
+        <v>-8.687135861410052</v>
       </c>
       <c r="E61">
-        <v>9.690518308380419</v>
+        <v>8.687135861410052</v>
       </c>
       <c r="F61">
         <v>-16.70540846631665</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>-0.3356044148129653</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-9.037312070262676</v>
+        <v>-8.708811937322146</v>
       </c>
       <c r="E62">
-        <v>8.366103240636743</v>
+        <v>8.708811937322146</v>
       </c>
       <c r="F62">
         <v>-1.2808958292581</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>-0.1636793876224237</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-8.863814727799022</v>
+        <v>-8.707301769545799</v>
       </c>
       <c r="E63">
-        <v>8.536455952554176</v>
+        <v>8.707301769545799</v>
       </c>
       <c r="F63">
         <v>5.202967144586257</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.1390694684650444</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-8.561824642933646</v>
+        <v>-8.707913501075947</v>
       </c>
       <c r="E64">
-        <v>8.839963579863733</v>
+        <v>8.707913501075947</v>
       </c>
       <c r="F64">
         <v>-5.571971253331665</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>-0.1579299453450826</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-8.85990027952759</v>
+        <v>-8.708856152444026</v>
       </c>
       <c r="E65">
-        <v>8.544040388837423</v>
+        <v>8.708856152444026</v>
       </c>
       <c r="F65">
         <v>0.3690041087454077</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>-0.04083746233073099</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-8.741187089003541</v>
+        <v>-8.707222302116651</v>
       </c>
       <c r="E66">
-        <v>8.659512164342077</v>
+        <v>8.707222302116651</v>
       </c>
       <c r="F66">
         <v>-2.990877139257275</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.1241669713994913</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-8.823599377168129</v>
+        <v>-8.706323357898528</v>
       </c>
       <c r="E67">
-        <v>8.575265434369147</v>
+        <v>8.706323357898528</v>
       </c>
       <c r="F67">
         <v>-4.860042884963356</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.223278789107799</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-8.922938255261258</v>
+        <v>-8.70664721601972</v>
       </c>
       <c r="E68">
-        <v>8.476380677045661</v>
+        <v>8.70664721601972</v>
       </c>
       <c r="F68">
         <v>-2.215599189720852</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.1605207315356817</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-8.858869172330287</v>
+        <v>-8.705413030179962</v>
       </c>
       <c r="E69">
-        <v>8.537827709258924</v>
+        <v>8.705413030179962</v>
       </c>
       <c r="F69">
         <v>-1.023550389402672</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.09419824591489545</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-8.790968035614018</v>
+        <v>-8.703858177144443</v>
       </c>
       <c r="E70">
-        <v>8.602571543784226</v>
+        <v>8.703858177144443</v>
       </c>
       <c r="F70">
         <v>2.839947452169778</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.07331993757895039</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-8.622526690212696</v>
+        <v>-8.702888270857063</v>
       </c>
       <c r="E71">
-        <v>8.769166565370599</v>
+        <v>8.702888270857063</v>
       </c>
       <c r="F71">
         <v>-4.709160753384989</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>-0.14863731915288</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-8.844749252729351</v>
+        <v>-8.70309295257791</v>
       </c>
       <c r="E72">
-        <v>8.547474614423592</v>
+        <v>8.70309295257791</v>
       </c>
       <c r="F72">
         <v>-3.629000140520056</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.1872409592658515</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-8.882722213590165</v>
+        <v>-8.702548487528</v>
       </c>
       <c r="E73">
-        <v>8.508240295058462</v>
+        <v>8.702548487528</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.06542168148693785</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-8.759268129067664</v>
+        <v>-8.700909435156833</v>
       </c>
       <c r="E74">
-        <v>8.628424766093787</v>
+        <v>8.700909435156833</v>
       </c>
       <c r="F74">
         <v>0.2171553513507618</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>-0.01475147022195632</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-8.706967740218499</v>
+        <v>-8.699275228778117</v>
       </c>
       <c r="E75">
-        <v>8.677464799774587</v>
+        <v>8.699275228778117</v>
       </c>
       <c r="F75">
         <v>-0.2171553513507618</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>-0.01323058837774153</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-8.703814403237731</v>
+        <v>-8.697641945807714</v>
       </c>
       <c r="E76">
-        <v>8.677353226482248</v>
+        <v>8.697641945807714</v>
       </c>
       <c r="F76">
         <v>0.8658062743114314</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>0.02755856321647548</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-8.661454543232763</v>
+        <v>-8.696067960769048</v>
       </c>
       <c r="E77">
-        <v>8.716571669665713</v>
+        <v>8.696067960769048</v>
       </c>
       <c r="F77">
         <v>-1.958713327530504</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.06309619838943192</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-8.750803353825617</v>
+        <v>-8.694751347540455</v>
       </c>
       <c r="E78">
-        <v>8.624610957046752</v>
+        <v>8.694751347540455</v>
       </c>
       <c r="F78">
         <v>2.173998663640564</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>0.05850779895896319</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-8.627982243652539</v>
+        <v>-8.693509427177867</v>
       </c>
       <c r="E79">
-        <v>8.744997841570466</v>
+        <v>8.693509427177867</v>
       </c>
       <c r="F79">
         <v>9.04106109631666</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.3579438019306944</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-8.333616569705935</v>
+        <v>-8.698661444826259</v>
       </c>
       <c r="E80">
-        <v>9.049504173567325</v>
+        <v>8.698661444826259</v>
       </c>
       <c r="F80">
         <v>-9.04106109631666</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>-0.2027651330863773</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-8.900014706644559</v>
+        <v>-8.703806545505959</v>
       </c>
       <c r="E81">
-        <v>8.494484440471805</v>
+        <v>8.703806545505959</v>
       </c>
       <c r="F81">
         <v>5.236798551731603</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.1130382746316829</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-8.585029288925384</v>
+        <v>-8.704444966188584</v>
       </c>
       <c r="E82">
-        <v>8.811105838188748</v>
+        <v>8.704444966188584</v>
       </c>
       <c r="F82">
         <v>-5.236798551731603</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.1410104917110011</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-8.839817653790119</v>
+        <v>-8.705082860808085</v>
       </c>
       <c r="E83">
-        <v>8.557796670368118</v>
+        <v>8.705082860808085</v>
       </c>
       <c r="F83">
         <v>-1.081091610421492</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.08957199231020807</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-8.786820102865658</v>
+        <v>-8.703546270560635</v>
       </c>
       <c r="E84">
-        <v>8.607676118245241</v>
+        <v>8.703546270560635</v>
       </c>
       <c r="F84">
         <v>0.6500564603093117</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>-0.0101957824178347</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-8.705857899255145</v>
+        <v>-8.701948781602276</v>
       </c>
       <c r="E85">
-        <v>8.685466334419475</v>
+        <v>8.701948781602276</v>
       </c>
       <c r="F85">
         <v>-1.304366319202899</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.04919609662419538</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-8.743366626653097</v>
+        <v>-8.700458055123248</v>
       </c>
       <c r="E86">
-        <v>8.644974433404707</v>
+        <v>8.700458055123248</v>
       </c>
       <c r="F86">
         <v>-1.543580812983958</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.07190074661761581</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-8.764626756386939</v>
+        <v>-8.699024573747252</v>
       </c>
       <c r="E87">
-        <v>8.620825263151708</v>
+        <v>8.699024573747252</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.02646138268981286</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-8.717559206338464</v>
+        <v>-8.697394779901801</v>
       </c>
       <c r="E88">
-        <v>8.664636440958837</v>
+        <v>8.697394779901801</v>
       </c>
       <c r="F88">
         <v>0.2219756738313095</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.001999027742103629</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-8.69147425233218</v>
+        <v>-8.695769978127691</v>
       </c>
       <c r="E89">
-        <v>8.687476196847973</v>
+        <v>8.695769978127691</v>
       </c>
       <c r="F89">
         <v>2.409755157906002</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>0.0832586908643701</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-8.605071119461631</v>
+        <v>-8.694622317140892</v>
       </c>
       <c r="E90">
-        <v>8.771588501190372</v>
+        <v>8.694622317140892</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.03056320647338507</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-8.656141217361</v>
+        <v>-8.692995177177707</v>
       </c>
       <c r="E91">
-        <v>8.71726763030777</v>
+        <v>8.692995177177707</v>
       </c>
       <c r="F91">
         <v>4.65200156348935</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>0.1735950080774082</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-8.513251345453732</v>
+        <v>-8.69315803142252</v>
       </c>
       <c r="E92">
-        <v>8.860441361608547</v>
+        <v>8.69315803142252</v>
       </c>
       <c r="F92">
         <v>4.839654086184986</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>0.2352164834428643</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-8.451805107383645</v>
+        <v>-8.693467933679422</v>
       </c>
       <c r="E93">
-        <v>8.922238074269373</v>
+        <v>8.693467933679422</v>
       </c>
       <c r="F93">
         <v>-5.878085016756707</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.1193250123529959</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-8.80780949173386</v>
+        <v>-8.69469678824086</v>
       </c>
       <c r="E94">
-        <v>8.569159467027866</v>
+        <v>8.69469678824086</v>
       </c>
       <c r="F94">
         <v>12.72486494450273</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.3852813796853676</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-8.315191748799094</v>
+        <v>-8.706431730728315</v>
       </c>
       <c r="E95">
-        <v>9.085754508169828</v>
+        <v>8.706431730728315</v>
       </c>
       <c r="F95">
         <v>1.278556229697259</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.1926688185889803</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-8.506244683430168</v>
+        <v>-8.704940168725056</v>
       </c>
       <c r="E96">
-        <v>8.89158232060813</v>
+        <v>8.704940168725056</v>
       </c>
       <c r="F96">
         <v>-6.951154369774937</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.1613710666607342</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-8.862863590234218</v>
+        <v>-8.707295832942176</v>
       </c>
       <c r="E97">
-        <v>8.540121456912749</v>
+        <v>8.707295832942176</v>
       </c>
       <c r="F97">
         <v>4.00434814408408</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.07142142183732147</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-8.629876006205659</v>
+        <v>-8.706991077928457</v>
       </c>
       <c r="E98">
-        <v>8.772718849880302</v>
+        <v>8.706991077928457</v>
       </c>
       <c r="F98">
         <v>4.923510299768452</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.1903427805839109</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-8.511270156663821</v>
+        <v>-8.707362026739553</v>
       </c>
       <c r="E99">
-        <v>8.891955717831644</v>
+        <v>8.707362026739553</v>
       </c>
       <c r="F99">
         <v>-2.888287414878565</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.02235582477901921</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-8.723125883637911</v>
+        <v>-8.706424477949568</v>
       </c>
       <c r="E100">
-        <v>8.678414234079872</v>
+        <v>8.706424477949568</v>
       </c>
       <c r="F100">
         <v>1.454571100237878</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.03914656150516937</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-8.660180943489804</v>
+        <v>-8.704975277449998</v>
       </c>
       <c r="E101">
-        <v>8.738474066500144</v>
+        <v>8.704975277449998</v>
       </c>
       <c r="F101">
         <v>5.615510282972824</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.1993898233322442</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-8.500875426157947</v>
+        <v>-8.705946393872892</v>
       </c>
       <c r="E102">
-        <v>8.899655072822434</v>
+        <v>8.705946393872892</v>
       </c>
       <c r="F102">
         <v>4.992717395650725</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.2439917408517775</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-8.456541369576398</v>
+        <v>-8.706373634161601</v>
       </c>
       <c r="E103">
-        <v>8.944524851279953</v>
+        <v>8.706373634161601</v>
       </c>
       <c r="F103">
         <v>0.4858309151076767</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>0.1100010217412492</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-8.588916488106028</v>
+        <v>-8.70477158229167</v>
       </c>
       <c r="E104">
-        <v>8.808918531588526</v>
+        <v>8.70477158229167</v>
       </c>
       <c r="F104">
         <v>-2.453107474978111</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>-0.03994846451423406</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-8.737786323621616</v>
+        <v>-8.703645482432442</v>
       </c>
       <c r="E105">
-        <v>8.657889394593148</v>
+        <v>8.703645482432442</v>
       </c>
       <c r="F105">
         <v>-18.09979298634463</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.6305472626726099</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-9.353525413420705</v>
+        <v>-8.728895974751319</v>
       </c>
       <c r="E106">
-        <v>8.092430888075484</v>
+        <v>8.728895974751319</v>
       </c>
       <c r="F106">
         <v>0.1982161203991417</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.2188598773832987</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-8.940271472743806</v>
+        <v>-8.727275362153357</v>
       </c>
       <c r="E107">
-        <v>8.502551717977209</v>
+        <v>8.727275362153357</v>
       </c>
       <c r="F107">
         <v>4.264211926600225</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>0.07009663901560659</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-8.651335154002197</v>
+        <v>-8.727140886840592</v>
       </c>
       <c r="E108">
-        <v>8.79152843203341</v>
+        <v>8.727140886840592</v>
       </c>
       <c r="F108">
         <v>-1.722530628187968</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.03352294034620995</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-8.753596605706102</v>
+        <v>-8.725761400860621</v>
       </c>
       <c r="E109">
-        <v>8.686550725013683</v>
+        <v>8.725761400860621</v>
       </c>
       <c r="F109">
         <v>-4.541747969079246</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.163541353495779</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-8.883658470603182</v>
+        <v>-8.72582748789991</v>
       </c>
       <c r="E110">
-        <v>8.556575763611624</v>
+        <v>8.72582748789991</v>
       </c>
       <c r="F110">
         <v>0.8048333182828493</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>-0.03097786896052218</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-8.749551928932991</v>
+        <v>-8.724259618852013</v>
       </c>
       <c r="E111">
-        <v>8.687596191011949</v>
+        <v>8.724259618852013</v>
       </c>
       <c r="F111">
         <v>-4.508960486317726</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.1615614160214609</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-8.880157110825907</v>
+        <v>-8.724301965081683</v>
       </c>
       <c r="E112">
-        <v>8.557034278782984</v>
+        <v>8.724301965081683</v>
       </c>
       <c r="F112">
         <v>-3.195159980660289</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.1655182185416548</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-8.883248153460269</v>
+        <v>-8.723517052403622</v>
       </c>
       <c r="E113">
-        <v>8.552211716376959</v>
+        <v>8.723517052403622</v>
       </c>
       <c r="F113">
         <v>0.2162163004495454</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.05159666436544705</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-8.767720858524992</v>
+        <v>-8.72190225919157</v>
       </c>
       <c r="E114">
-        <v>8.6645275297941</v>
+        <v>8.72190225919157</v>
       </c>
       <c r="F114">
         <v>-0.6500564603093117</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.04058373373137536</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-8.755120663228242</v>
+        <v>-8.72031907062922</v>
       </c>
       <c r="E115">
-        <v>8.67395319576549</v>
+        <v>8.72031907062922</v>
       </c>
       <c r="F115">
         <v>0.2171553513507618</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>-0.007310405475077816</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-8.720237003056379</v>
+        <v>-8.718706102576983</v>
       </c>
       <c r="E116">
-        <v>8.705616192106223</v>
+        <v>8.718706102576983</v>
       </c>
       <c r="F116">
         <v>5.486608008594107</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>0.1813462137964681</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-8.532431593554373</v>
+        <v>-8.719548369913475</v>
       </c>
       <c r="E117">
-        <v>8.895124021147309</v>
+        <v>8.719548369913475</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.06470639715298833</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-8.64745970670489</v>
+        <v>-8.717932890813012</v>
       </c>
       <c r="E118">
-        <v>8.776872501010867</v>
+        <v>8.717932890813012</v>
       </c>
       <c r="F118">
         <v>-3.553142837848533</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.09656681655665578</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-8.808187795748569</v>
+        <v>-8.717348659737052</v>
       </c>
       <c r="E119">
-        <v>8.615054162635257</v>
+        <v>8.717348659737052</v>
       </c>
       <c r="F119">
         <v>-3.905051487187272</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.1654084711814836</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-8.876600415894108</v>
+        <v>-8.716978943778312</v>
       </c>
       <c r="E120">
-        <v>8.54578347353114</v>
+        <v>8.716978943778312</v>
       </c>
       <c r="F120">
         <v>-3.374898473664167</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.1727795242183208</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-8.883199710642044</v>
+        <v>-8.716294720637036</v>
       </c>
       <c r="E121">
-        <v>8.537640662205403</v>
+        <v>8.716294720637036</v>
       </c>
       <c r="F121">
         <v>-2.784402617117276</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.1553530023777042</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-8.864718088864983</v>
+        <v>-8.715314402830762</v>
       </c>
       <c r="E122">
-        <v>8.554012084109573</v>
+        <v>8.715314402830762</v>
       </c>
       <c r="F122">
         <v>-1.660773639966084</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.1119565161032927</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-8.819895728622436</v>
+        <v>-8.713927541659253</v>
       </c>
       <c r="E123">
-        <v>8.595982696415851</v>
+        <v>8.713927541659253</v>
       </c>
       <c r="F123">
         <v>0.2389487397381096</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.03131240520370446</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-8.737651938645488</v>
+        <v>-8.71232133889055</v>
       </c>
       <c r="E124">
-        <v>8.675027128238078</v>
+        <v>8.71232133889055</v>
       </c>
       <c r="F124">
         <v>-2.171376022378357</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.08548618477831627</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-8.790590413515824</v>
+        <v>-8.711095578085953</v>
       </c>
       <c r="E125">
-        <v>8.619618043959191</v>
+        <v>8.711095578085953</v>
       </c>
       <c r="F125">
         <v>4.296603588344272</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.1163203730319005</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-8.588740882833862</v>
+        <v>-8.710990319377448</v>
       </c>
       <c r="E126">
-        <v>8.821381628897663</v>
+        <v>8.710990319377448</v>
       </c>
       <c r="F126">
         <v>1.392133851860855</v>
